--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateuszmuziol/Documents/PEA/PEA Projekt 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB7E88F-0571-E34A-8389-53DE4645B453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0546EF-BE07-FF4C-8CED-6228C813A7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="10">
   <si>
     <t>BF [μs]</t>
   </si>
@@ -121,13 +121,12 @@
     <t>Rozmiar instancji</t>
   </si>
   <si>
-    <t>Brute Force [μs]</t>
+    <t>Branch &amp; Bound
+[μs]</t>
   </si>
   <si>
-    <t>Branch &amp; Bound [μs]</t>
-  </si>
-  <si>
-    <t>Programowanie Dynamiczne [μs]</t>
+    <t>Brute Force
+[μs]</t>
   </si>
 </sst>
 </file>
@@ -150,42 +149,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -226,35 +195,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -386,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -394,52 +335,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -447,6 +352,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,19 +545,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1041</c:v>
+                  <c:v>1641</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7236</c:v>
+                  <c:v>11371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68851</c:v>
+                  <c:v>102757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8363000</c:v>
+                  <c:v>12171000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -704,25 +639,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>305</c:v>
+                  <c:v>1113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>274</c:v>
+                  <c:v>3642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139</c:v>
+                  <c:v>4261</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3368</c:v>
+                  <c:v>77462</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3617</c:v>
+                  <c:v>109396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4139</c:v>
+                  <c:v>407387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -731,106 +666,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6AF3-CB42-B810-A32D76C07632}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Programowanie Dynamiczne</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Wyniki uśrednione + tabelki'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Wyniki uśrednione + tabelki'!$C$5:$I$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1479</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3034</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6923</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6AF3-CB42-B810-A32D76C07632}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1328,19 +1163,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1041</c:v>
+                  <c:v>1641</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7236</c:v>
+                  <c:v>11371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68851</c:v>
+                  <c:v>102757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8363000</c:v>
+                  <c:v>12171000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1900,25 +1735,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>305</c:v>
+                  <c:v>1113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>274</c:v>
+                  <c:v>3642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139</c:v>
+                  <c:v>4261</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3368</c:v>
+                  <c:v>77462</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3617</c:v>
+                  <c:v>109396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4139</c:v>
+                  <c:v>407387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2070,7 +1905,6 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2291,546 +2125,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Algorytm programowania dynamicznego - średnia ze 100 pomiarów</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Programowanie dynamiczne</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Wyniki uśrednione + tabelki'!$C$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Wyniki uśrednione + tabelki'!$C$5:$I$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1479</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3034</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6923</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A726-2E47-BB0D-7FA0BEFEA737}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="554073376"/>
-        <c:axId val="554075056"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="554073376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>Wielkość</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pl-PL" baseline="0"/>
-                  <a:t> instancji problemu</a:t>
-                </a:r>
-                <a:endParaRPr lang="pl-PL"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="554075056"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="554075056"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="10000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>Czas wykonania</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pl-PL" baseline="0"/>
-                  <a:t> algorytmu [</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="el-GR" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>μ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pl-PL" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>s]</a:t>
-                </a:r>
-                <a:endParaRPr lang="pl-PL"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="554073376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:pattFill prst="ltDnDiag">
-          <a:fgClr>
-            <a:schemeClr val="dk1">
-              <a:lumMod val="15000"/>
-              <a:lumOff val="85000"/>
-            </a:schemeClr>
-          </a:fgClr>
-          <a:bgClr>
-            <a:schemeClr val="lt1"/>
-          </a:bgClr>
-        </a:pattFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2912,46 +2206,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4719,582 +3973,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="15875">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5400,42 +4078,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>8466</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>4232</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>634999</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>203199</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Wykres 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84307160-31AE-BDB5-4E7F-356E8E2D8576}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5688,41 +4330,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B2" s="21">
+      <c r="B2" s="9">
         <v>6</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="F2" s="21">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="9">
         <v>8</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="J2" s="21">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="J2" s="9">
         <v>9</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="N2" s="21">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="N2" s="9">
         <v>10</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="R2" s="21">
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="R2" s="9">
         <v>12</v>
       </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="V2" s="21">
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="V2" s="9">
         <v>13</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Z2" s="21">
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Z2" s="9">
         <v>14</v>
       </c>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -5835,7 +4477,7 @@
       <c r="T4" s="2">
         <v>2283</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="V4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="W4" s="2">
@@ -5844,7 +4486,7 @@
       <c r="X4" s="2">
         <v>3235</v>
       </c>
-      <c r="Z4" s="22" t="s">
+      <c r="Z4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="AA4" s="2">
@@ -5900,14 +4542,14 @@
       <c r="T5" s="2">
         <v>2259</v>
       </c>
-      <c r="V5" s="22"/>
+      <c r="V5" s="10"/>
       <c r="W5" s="2">
         <v>16445</v>
       </c>
       <c r="X5" s="2">
         <v>3008</v>
       </c>
-      <c r="Z5" s="22"/>
+      <c r="Z5" s="10"/>
       <c r="AA5" s="2">
         <v>3932</v>
       </c>
@@ -5961,14 +4603,14 @@
       <c r="T6" s="2">
         <v>2253</v>
       </c>
-      <c r="V6" s="22"/>
+      <c r="V6" s="10"/>
       <c r="W6" s="2">
         <v>16030</v>
       </c>
       <c r="X6" s="2">
         <v>3004</v>
       </c>
-      <c r="Z6" s="22"/>
+      <c r="Z6" s="10"/>
       <c r="AA6" s="2">
         <v>4038</v>
       </c>
@@ -6022,14 +4664,14 @@
       <c r="T7" s="2">
         <v>2249</v>
       </c>
-      <c r="V7" s="22"/>
+      <c r="V7" s="10"/>
       <c r="W7" s="2">
         <v>16604</v>
       </c>
       <c r="X7" s="2">
         <v>3016</v>
       </c>
-      <c r="Z7" s="22"/>
+      <c r="Z7" s="10"/>
       <c r="AA7" s="2">
         <v>4043</v>
       </c>
@@ -6083,14 +4725,14 @@
       <c r="T8" s="2">
         <v>1967</v>
       </c>
-      <c r="V8" s="22"/>
+      <c r="V8" s="10"/>
       <c r="W8" s="2">
         <v>16080</v>
       </c>
       <c r="X8" s="2">
         <v>3001</v>
       </c>
-      <c r="Z8" s="22"/>
+      <c r="Z8" s="10"/>
       <c r="AA8" s="2">
         <v>4020</v>
       </c>
@@ -6144,14 +4786,14 @@
       <c r="T9" s="2">
         <v>2255</v>
       </c>
-      <c r="V9" s="22"/>
+      <c r="V9" s="10"/>
       <c r="W9" s="2">
         <v>16591</v>
       </c>
       <c r="X9" s="2">
         <v>3005</v>
       </c>
-      <c r="Z9" s="22"/>
+      <c r="Z9" s="10"/>
       <c r="AA9" s="2">
         <v>4012</v>
       </c>
@@ -6205,14 +4847,14 @@
       <c r="T10" s="2">
         <v>2188</v>
       </c>
-      <c r="V10" s="22"/>
+      <c r="V10" s="10"/>
       <c r="W10" s="2">
         <v>16141</v>
       </c>
       <c r="X10" s="2">
         <v>3007</v>
       </c>
-      <c r="Z10" s="22"/>
+      <c r="Z10" s="10"/>
       <c r="AA10" s="2">
         <v>4246</v>
       </c>
@@ -6266,14 +4908,14 @@
       <c r="T11" s="2">
         <v>2153</v>
       </c>
-      <c r="V11" s="22"/>
+      <c r="V11" s="10"/>
       <c r="W11" s="2">
         <v>16704</v>
       </c>
       <c r="X11" s="2">
         <v>3019</v>
       </c>
-      <c r="Z11" s="22"/>
+      <c r="Z11" s="10"/>
       <c r="AA11" s="2">
         <v>4486</v>
       </c>
@@ -6327,14 +4969,14 @@
       <c r="T12" s="2">
         <v>2233</v>
       </c>
-      <c r="V12" s="22"/>
+      <c r="V12" s="10"/>
       <c r="W12" s="2">
         <v>16091</v>
       </c>
       <c r="X12" s="2">
         <v>3002</v>
       </c>
-      <c r="Z12" s="22"/>
+      <c r="Z12" s="10"/>
       <c r="AA12" s="2">
         <v>4089</v>
       </c>
@@ -6388,14 +5030,14 @@
       <c r="T13" s="2">
         <v>2248</v>
       </c>
-      <c r="V13" s="22"/>
+      <c r="V13" s="10"/>
       <c r="W13" s="2">
         <v>16657</v>
       </c>
       <c r="X13" s="2">
         <v>3001</v>
       </c>
-      <c r="Z13" s="22"/>
+      <c r="Z13" s="10"/>
       <c r="AA13" s="2">
         <v>4065</v>
       </c>
@@ -6449,14 +5091,14 @@
       <c r="T14" s="2">
         <v>2235</v>
       </c>
-      <c r="V14" s="22"/>
+      <c r="V14" s="10"/>
       <c r="W14" s="2">
         <v>16109</v>
       </c>
       <c r="X14" s="2">
         <v>3008</v>
       </c>
-      <c r="Z14" s="22"/>
+      <c r="Z14" s="10"/>
       <c r="AA14" s="2">
         <v>4049</v>
       </c>
@@ -6510,14 +5152,14 @@
       <c r="T15" s="2">
         <v>2233</v>
       </c>
-      <c r="V15" s="22"/>
+      <c r="V15" s="10"/>
       <c r="W15" s="2">
         <v>16644</v>
       </c>
       <c r="X15" s="2">
         <v>3026</v>
       </c>
-      <c r="Z15" s="22"/>
+      <c r="Z15" s="10"/>
       <c r="AA15" s="2">
         <v>4034</v>
       </c>
@@ -6571,14 +5213,14 @@
       <c r="T16" s="2">
         <v>2235</v>
       </c>
-      <c r="V16" s="22"/>
+      <c r="V16" s="10"/>
       <c r="W16" s="2">
         <v>16336</v>
       </c>
       <c r="X16" s="2">
         <v>3015</v>
       </c>
-      <c r="Z16" s="22"/>
+      <c r="Z16" s="10"/>
       <c r="AA16" s="2">
         <v>4039</v>
       </c>
@@ -6632,14 +5274,14 @@
       <c r="T17" s="2">
         <v>1935</v>
       </c>
-      <c r="V17" s="22"/>
+      <c r="V17" s="10"/>
       <c r="W17" s="2">
         <v>16506</v>
       </c>
       <c r="X17" s="2">
         <v>3011</v>
       </c>
-      <c r="Z17" s="22"/>
+      <c r="Z17" s="10"/>
       <c r="AA17" s="2">
         <v>4065</v>
       </c>
@@ -6693,14 +5335,14 @@
       <c r="T18" s="2">
         <v>1923</v>
       </c>
-      <c r="V18" s="22"/>
+      <c r="V18" s="10"/>
       <c r="W18" s="2">
         <v>16582</v>
       </c>
       <c r="X18" s="2">
         <v>3012</v>
       </c>
-      <c r="Z18" s="22"/>
+      <c r="Z18" s="10"/>
       <c r="AA18" s="2">
         <v>4526</v>
       </c>
@@ -6754,14 +5396,14 @@
       <c r="T19" s="2">
         <v>2234</v>
       </c>
-      <c r="V19" s="22"/>
+      <c r="V19" s="10"/>
       <c r="W19" s="2">
         <v>16193</v>
       </c>
       <c r="X19" s="2">
         <v>3028</v>
       </c>
-      <c r="Z19" s="22"/>
+      <c r="Z19" s="10"/>
       <c r="AA19" s="2">
         <v>4088</v>
       </c>
@@ -6815,14 +5457,14 @@
       <c r="T20" s="2">
         <v>2230</v>
       </c>
-      <c r="V20" s="22"/>
+      <c r="V20" s="10"/>
       <c r="W20" s="2">
         <v>1171</v>
       </c>
       <c r="X20" s="2">
         <v>3041</v>
       </c>
-      <c r="Z20" s="22"/>
+      <c r="Z20" s="10"/>
       <c r="AA20" s="2">
         <v>4050</v>
       </c>
@@ -6876,14 +5518,14 @@
       <c r="T21" s="2">
         <v>1328</v>
       </c>
-      <c r="V21" s="22"/>
+      <c r="V21" s="10"/>
       <c r="W21" s="2">
         <v>1166</v>
       </c>
       <c r="X21" s="2">
         <v>3032</v>
       </c>
-      <c r="Z21" s="22"/>
+      <c r="Z21" s="10"/>
       <c r="AA21" s="2">
         <v>4076</v>
       </c>
@@ -6937,14 +5579,14 @@
       <c r="T22" s="2">
         <v>1331</v>
       </c>
-      <c r="V22" s="22"/>
+      <c r="V22" s="10"/>
       <c r="W22" s="2">
         <v>1168</v>
       </c>
       <c r="X22" s="2">
         <v>3022</v>
       </c>
-      <c r="Z22" s="22"/>
+      <c r="Z22" s="10"/>
       <c r="AA22" s="2">
         <v>4040</v>
       </c>
@@ -6998,14 +5640,14 @@
       <c r="T23" s="2">
         <v>1326</v>
       </c>
-      <c r="V23" s="22"/>
+      <c r="V23" s="10"/>
       <c r="W23" s="2">
         <v>1154</v>
       </c>
       <c r="X23" s="2">
         <v>3038</v>
       </c>
-      <c r="Z23" s="22"/>
+      <c r="Z23" s="10"/>
       <c r="AA23" s="2">
         <v>4048</v>
       </c>
@@ -7059,14 +5701,14 @@
       <c r="T24" s="2">
         <v>1323</v>
       </c>
-      <c r="V24" s="22"/>
+      <c r="V24" s="10"/>
       <c r="W24" s="2">
         <v>1155</v>
       </c>
       <c r="X24" s="2">
         <v>3026</v>
       </c>
-      <c r="Z24" s="22"/>
+      <c r="Z24" s="10"/>
       <c r="AA24" s="2">
         <v>4054</v>
       </c>
@@ -7120,14 +5762,14 @@
       <c r="T25" s="2">
         <v>1332</v>
       </c>
-      <c r="V25" s="22"/>
+      <c r="V25" s="10"/>
       <c r="W25" s="2">
         <v>1159</v>
       </c>
       <c r="X25" s="2">
         <v>3033</v>
       </c>
-      <c r="Z25" s="22"/>
+      <c r="Z25" s="10"/>
       <c r="AA25" s="2">
         <v>4269</v>
       </c>
@@ -7181,14 +5823,14 @@
       <c r="T26" s="2">
         <v>1328</v>
       </c>
-      <c r="V26" s="22"/>
+      <c r="V26" s="10"/>
       <c r="W26" s="2">
         <v>1173</v>
       </c>
       <c r="X26" s="2">
         <v>3036</v>
       </c>
-      <c r="Z26" s="22"/>
+      <c r="Z26" s="10"/>
       <c r="AA26" s="2">
         <v>4523</v>
       </c>
@@ -7242,14 +5884,14 @@
       <c r="T27" s="2">
         <v>1334</v>
       </c>
-      <c r="V27" s="22"/>
+      <c r="V27" s="10"/>
       <c r="W27" s="2">
         <v>1174</v>
       </c>
       <c r="X27" s="2">
         <v>3028</v>
       </c>
-      <c r="Z27" s="22"/>
+      <c r="Z27" s="10"/>
       <c r="AA27" s="2">
         <v>4123</v>
       </c>
@@ -7303,14 +5945,14 @@
       <c r="T28" s="2">
         <v>1336</v>
       </c>
-      <c r="V28" s="22"/>
+      <c r="V28" s="10"/>
       <c r="W28" s="2">
         <v>1223</v>
       </c>
       <c r="X28" s="2">
         <v>3036</v>
       </c>
-      <c r="Z28" s="22"/>
+      <c r="Z28" s="10"/>
       <c r="AA28" s="2">
         <v>4082</v>
       </c>
@@ -7364,14 +6006,14 @@
       <c r="T29" s="2">
         <v>1326</v>
       </c>
-      <c r="V29" s="22"/>
+      <c r="V29" s="10"/>
       <c r="W29" s="3">
         <v>1265</v>
       </c>
       <c r="X29" s="2">
         <v>3029</v>
       </c>
-      <c r="Z29" s="22"/>
+      <c r="Z29" s="10"/>
       <c r="AA29" s="2">
         <v>4057</v>
       </c>
@@ -7425,14 +6067,14 @@
       <c r="T30" s="2">
         <v>1327</v>
       </c>
-      <c r="V30" s="22"/>
+      <c r="V30" s="10"/>
       <c r="W30" s="2">
         <v>1268</v>
       </c>
       <c r="X30" s="2">
         <v>3028</v>
       </c>
-      <c r="Z30" s="22"/>
+      <c r="Z30" s="10"/>
       <c r="AA30" s="2">
         <v>4077</v>
       </c>
@@ -7486,14 +6128,14 @@
       <c r="T31" s="2">
         <v>1331</v>
       </c>
-      <c r="V31" s="22"/>
+      <c r="V31" s="10"/>
       <c r="W31" s="2">
         <v>1316</v>
       </c>
       <c r="X31" s="2">
         <v>3039</v>
       </c>
-      <c r="Z31" s="22"/>
+      <c r="Z31" s="10"/>
       <c r="AA31" s="2">
         <v>4074</v>
       </c>
@@ -7547,14 +6189,14 @@
       <c r="T32" s="2">
         <v>1334</v>
       </c>
-      <c r="V32" s="22"/>
+      <c r="V32" s="10"/>
       <c r="W32" s="2">
         <v>1329</v>
       </c>
       <c r="X32" s="2">
         <v>3041</v>
       </c>
-      <c r="Z32" s="22"/>
+      <c r="Z32" s="10"/>
       <c r="AA32" s="2">
         <v>4099</v>
       </c>
@@ -7608,14 +6250,14 @@
       <c r="T33" s="2">
         <v>1337</v>
       </c>
-      <c r="V33" s="22"/>
+      <c r="V33" s="10"/>
       <c r="W33" s="2">
         <v>1200</v>
       </c>
       <c r="X33" s="2">
         <v>3025</v>
       </c>
-      <c r="Z33" s="22"/>
+      <c r="Z33" s="10"/>
       <c r="AA33" s="2">
         <v>4536</v>
       </c>
@@ -7669,14 +6311,14 @@
       <c r="T34" s="2">
         <v>1335</v>
       </c>
-      <c r="V34" s="22"/>
+      <c r="V34" s="10"/>
       <c r="W34" s="2">
         <v>1183</v>
       </c>
       <c r="X34" s="2">
         <v>3053</v>
       </c>
-      <c r="Z34" s="22"/>
+      <c r="Z34" s="10"/>
       <c r="AA34" s="2">
         <v>4102</v>
       </c>
@@ -7730,14 +6372,14 @@
       <c r="T35" s="2">
         <v>1333</v>
       </c>
-      <c r="V35" s="22"/>
+      <c r="V35" s="10"/>
       <c r="W35" s="2">
         <v>1177</v>
       </c>
       <c r="X35" s="2">
         <v>3049</v>
       </c>
-      <c r="Z35" s="22"/>
+      <c r="Z35" s="10"/>
       <c r="AA35" s="2">
         <v>4068</v>
       </c>
@@ -7791,14 +6433,14 @@
       <c r="T36" s="2">
         <v>1338</v>
       </c>
-      <c r="V36" s="22"/>
+      <c r="V36" s="10"/>
       <c r="W36" s="2">
         <v>1171</v>
       </c>
       <c r="X36" s="2">
         <v>3045</v>
       </c>
-      <c r="Z36" s="22"/>
+      <c r="Z36" s="10"/>
       <c r="AA36" s="2">
         <v>4067</v>
       </c>
@@ -7852,14 +6494,14 @@
       <c r="T37" s="2">
         <v>1338</v>
       </c>
-      <c r="V37" s="22"/>
+      <c r="V37" s="10"/>
       <c r="W37" s="2">
         <v>1172</v>
       </c>
       <c r="X37" s="2">
         <v>3034</v>
       </c>
-      <c r="Z37" s="22"/>
+      <c r="Z37" s="10"/>
       <c r="AA37" s="2">
         <v>4066</v>
       </c>
@@ -7913,14 +6555,14 @@
       <c r="T38" s="2">
         <v>1331</v>
       </c>
-      <c r="V38" s="22"/>
+      <c r="V38" s="10"/>
       <c r="W38" s="2">
         <v>1176</v>
       </c>
       <c r="X38" s="2">
         <v>3028</v>
       </c>
-      <c r="Z38" s="22"/>
+      <c r="Z38" s="10"/>
       <c r="AA38" s="2">
         <v>4051</v>
       </c>
@@ -7974,14 +6616,14 @@
       <c r="T39" s="2">
         <v>1349</v>
       </c>
-      <c r="V39" s="22"/>
+      <c r="V39" s="10"/>
       <c r="W39" s="2">
         <v>1176</v>
       </c>
       <c r="X39" s="2">
         <v>3034</v>
       </c>
-      <c r="Z39" s="22"/>
+      <c r="Z39" s="10"/>
       <c r="AA39" s="2">
         <v>4054</v>
       </c>
@@ -8035,14 +6677,14 @@
       <c r="T40" s="2">
         <v>1341</v>
       </c>
-      <c r="V40" s="22"/>
+      <c r="V40" s="10"/>
       <c r="W40" s="2">
         <v>1165</v>
       </c>
       <c r="X40" s="2">
         <v>3026</v>
       </c>
-      <c r="Z40" s="22"/>
+      <c r="Z40" s="10"/>
       <c r="AA40" s="2">
         <v>4268</v>
       </c>
@@ -8096,14 +6738,14 @@
       <c r="T41" s="2">
         <v>1338</v>
       </c>
-      <c r="V41" s="22"/>
+      <c r="V41" s="10"/>
       <c r="W41" s="2">
         <v>1174</v>
       </c>
       <c r="X41" s="2">
         <v>3043</v>
       </c>
-      <c r="Z41" s="22"/>
+      <c r="Z41" s="10"/>
       <c r="AA41" s="2">
         <v>4516</v>
       </c>
@@ -8157,14 +6799,14 @@
       <c r="T42" s="2">
         <v>1338</v>
       </c>
-      <c r="V42" s="22"/>
+      <c r="V42" s="10"/>
       <c r="W42" s="2">
         <v>1169</v>
       </c>
       <c r="X42" s="2">
         <v>3038</v>
       </c>
-      <c r="Z42" s="22"/>
+      <c r="Z42" s="10"/>
       <c r="AA42" s="2">
         <v>4108</v>
       </c>
@@ -8218,14 +6860,14 @@
       <c r="T43" s="2">
         <v>1333</v>
       </c>
-      <c r="V43" s="22"/>
+      <c r="V43" s="10"/>
       <c r="W43" s="2">
         <v>1186</v>
       </c>
       <c r="X43" s="2">
         <v>3046</v>
       </c>
-      <c r="Z43" s="22"/>
+      <c r="Z43" s="10"/>
       <c r="AA43" s="2">
         <v>4071</v>
       </c>
@@ -8279,14 +6921,14 @@
       <c r="T44" s="2">
         <v>1335</v>
       </c>
-      <c r="V44" s="22"/>
+      <c r="V44" s="10"/>
       <c r="W44" s="2">
         <v>1168</v>
       </c>
       <c r="X44" s="2">
         <v>3041</v>
       </c>
-      <c r="Z44" s="22"/>
+      <c r="Z44" s="10"/>
       <c r="AA44" s="2">
         <v>4056</v>
       </c>
@@ -8340,14 +6982,14 @@
       <c r="T45" s="2">
         <v>1332</v>
       </c>
-      <c r="V45" s="22"/>
+      <c r="V45" s="10"/>
       <c r="W45" s="2">
         <v>1165</v>
       </c>
       <c r="X45" s="2">
         <v>3032</v>
       </c>
-      <c r="Z45" s="22"/>
+      <c r="Z45" s="10"/>
       <c r="AA45" s="2">
         <v>4063</v>
       </c>
@@ -8401,14 +7043,14 @@
       <c r="T46" s="2">
         <v>1337</v>
       </c>
-      <c r="V46" s="22"/>
+      <c r="V46" s="10"/>
       <c r="W46" s="2">
         <v>1163</v>
       </c>
       <c r="X46" s="2">
         <v>3041</v>
       </c>
-      <c r="Z46" s="22"/>
+      <c r="Z46" s="10"/>
       <c r="AA46" s="2">
         <v>4053</v>
       </c>
@@ -8462,14 +7104,14 @@
       <c r="T47" s="2">
         <v>1333</v>
       </c>
-      <c r="V47" s="22"/>
+      <c r="V47" s="10"/>
       <c r="W47" s="2">
         <v>1174</v>
       </c>
       <c r="X47" s="2">
         <v>3034</v>
       </c>
-      <c r="Z47" s="22"/>
+      <c r="Z47" s="10"/>
       <c r="AA47" s="2">
         <v>4072</v>
       </c>
@@ -8523,14 +7165,14 @@
       <c r="T48" s="2">
         <v>1334</v>
       </c>
-      <c r="V48" s="22"/>
+      <c r="V48" s="10"/>
       <c r="W48" s="2">
         <v>1184</v>
       </c>
       <c r="X48" s="2">
         <v>3026</v>
       </c>
-      <c r="Z48" s="22"/>
+      <c r="Z48" s="10"/>
       <c r="AA48" s="2">
         <v>4537</v>
       </c>
@@ -8584,14 +7226,14 @@
       <c r="T49" s="2">
         <v>1339</v>
       </c>
-      <c r="V49" s="22"/>
+      <c r="V49" s="10"/>
       <c r="W49" s="2">
         <v>1182</v>
       </c>
       <c r="X49" s="2">
         <v>3043</v>
       </c>
-      <c r="Z49" s="22"/>
+      <c r="Z49" s="10"/>
       <c r="AA49" s="2">
         <v>4137</v>
       </c>
@@ -8645,14 +7287,14 @@
       <c r="T50" s="2">
         <v>1330</v>
       </c>
-      <c r="V50" s="22"/>
+      <c r="V50" s="10"/>
       <c r="W50" s="2">
         <v>1174</v>
       </c>
       <c r="X50" s="2">
         <v>3041</v>
       </c>
-      <c r="Z50" s="22"/>
+      <c r="Z50" s="10"/>
       <c r="AA50" s="2">
         <v>4084</v>
       </c>
@@ -8706,14 +7348,14 @@
       <c r="T51" s="2">
         <v>1336</v>
       </c>
-      <c r="V51" s="22"/>
+      <c r="V51" s="10"/>
       <c r="W51" s="2">
         <v>1177</v>
       </c>
       <c r="X51" s="2">
         <v>3038</v>
       </c>
-      <c r="Z51" s="22"/>
+      <c r="Z51" s="10"/>
       <c r="AA51" s="2">
         <v>4085</v>
       </c>
@@ -8767,14 +7409,14 @@
       <c r="T52" s="2">
         <v>1338</v>
       </c>
-      <c r="V52" s="22"/>
+      <c r="V52" s="10"/>
       <c r="W52" s="2">
         <v>1171</v>
       </c>
       <c r="X52" s="2">
         <v>3035</v>
       </c>
-      <c r="Z52" s="22"/>
+      <c r="Z52" s="10"/>
       <c r="AA52" s="2">
         <v>4064</v>
       </c>
@@ -8828,14 +7470,14 @@
       <c r="T53" s="2">
         <v>1340</v>
       </c>
-      <c r="V53" s="22"/>
+      <c r="V53" s="10"/>
       <c r="W53" s="2">
         <v>1171</v>
       </c>
       <c r="X53" s="2">
         <v>3035</v>
       </c>
-      <c r="Z53" s="22"/>
+      <c r="Z53" s="10"/>
       <c r="AA53" s="2">
         <v>4054</v>
       </c>
@@ -8880,21 +7522,21 @@
       <c r="P54" s="2">
         <v>396</v>
       </c>
-      <c r="R54" s="21"/>
+      <c r="R54" s="9"/>
       <c r="S54" s="3">
         <v>1734</v>
       </c>
       <c r="T54" s="2">
         <v>1327</v>
       </c>
-      <c r="V54" s="22"/>
+      <c r="V54" s="10"/>
       <c r="W54" s="2">
         <v>1197</v>
       </c>
       <c r="X54" s="2">
         <v>3038</v>
       </c>
-      <c r="Z54" s="22"/>
+      <c r="Z54" s="10"/>
       <c r="AA54" s="2">
         <v>4041</v>
       </c>
@@ -8939,21 +7581,21 @@
       <c r="P55" s="2">
         <v>395</v>
       </c>
-      <c r="R55" s="21"/>
+      <c r="R55" s="9"/>
       <c r="S55" s="2">
         <v>1720</v>
       </c>
       <c r="T55" s="2">
         <v>1336</v>
       </c>
-      <c r="V55" s="22"/>
+      <c r="V55" s="10"/>
       <c r="W55" s="2">
         <v>1271</v>
       </c>
       <c r="X55" s="2">
         <v>3029</v>
       </c>
-      <c r="Z55" s="22"/>
+      <c r="Z55" s="10"/>
       <c r="AA55" s="2">
         <v>4265</v>
       </c>
@@ -8998,21 +7640,21 @@
       <c r="P56" s="2">
         <v>395</v>
       </c>
-      <c r="R56" s="21"/>
+      <c r="R56" s="9"/>
       <c r="S56" s="2">
         <v>1724</v>
       </c>
       <c r="T56" s="2">
         <v>1336</v>
       </c>
-      <c r="V56" s="22"/>
+      <c r="V56" s="10"/>
       <c r="W56" s="2">
         <v>1292</v>
       </c>
       <c r="X56" s="2">
         <v>3029</v>
       </c>
-      <c r="Z56" s="22"/>
+      <c r="Z56" s="10"/>
       <c r="AA56" s="2">
         <v>4500</v>
       </c>
@@ -9057,21 +7699,21 @@
       <c r="P57" s="2">
         <v>395</v>
       </c>
-      <c r="R57" s="21"/>
+      <c r="R57" s="9"/>
       <c r="S57" s="2">
         <v>1714</v>
       </c>
       <c r="T57" s="2">
         <v>1335</v>
       </c>
-      <c r="V57" s="22"/>
+      <c r="V57" s="10"/>
       <c r="W57" s="2">
         <v>1322</v>
       </c>
       <c r="X57" s="2">
         <v>3041</v>
       </c>
-      <c r="Z57" s="22"/>
+      <c r="Z57" s="10"/>
       <c r="AA57" s="2">
         <v>4100</v>
       </c>
@@ -9116,21 +7758,21 @@
       <c r="P58" s="2">
         <v>395</v>
       </c>
-      <c r="R58" s="21"/>
+      <c r="R58" s="9"/>
       <c r="S58" s="2">
         <v>1715</v>
       </c>
       <c r="T58" s="2">
         <v>1335</v>
       </c>
-      <c r="V58" s="22"/>
+      <c r="V58" s="10"/>
       <c r="W58" s="2">
         <v>1276</v>
       </c>
       <c r="X58" s="2">
         <v>3036</v>
       </c>
-      <c r="Z58" s="22"/>
+      <c r="Z58" s="10"/>
       <c r="AA58" s="2">
         <v>4080</v>
       </c>
@@ -9175,21 +7817,21 @@
       <c r="P59" s="2">
         <v>393</v>
       </c>
-      <c r="R59" s="21"/>
+      <c r="R59" s="9"/>
       <c r="S59" s="2">
         <v>1719</v>
       </c>
       <c r="T59" s="2">
         <v>1334</v>
       </c>
-      <c r="V59" s="22"/>
+      <c r="V59" s="10"/>
       <c r="W59" s="2">
         <v>1178</v>
       </c>
       <c r="X59" s="2">
         <v>3032</v>
       </c>
-      <c r="Z59" s="22"/>
+      <c r="Z59" s="10"/>
       <c r="AA59" s="2">
         <v>4073</v>
       </c>
@@ -9234,21 +7876,21 @@
       <c r="P60" s="2">
         <v>394</v>
       </c>
-      <c r="R60" s="21"/>
+      <c r="R60" s="9"/>
       <c r="S60" s="2">
         <v>1725</v>
       </c>
       <c r="T60" s="2">
         <v>1340</v>
       </c>
-      <c r="V60" s="22"/>
+      <c r="V60" s="10"/>
       <c r="W60" s="2">
         <v>1182</v>
       </c>
       <c r="X60" s="2">
         <v>3036</v>
       </c>
-      <c r="Z60" s="22"/>
+      <c r="Z60" s="10"/>
       <c r="AA60" s="2">
         <v>4059</v>
       </c>
@@ -9293,21 +7935,21 @@
       <c r="P61" s="2">
         <v>396</v>
       </c>
-      <c r="R61" s="21"/>
+      <c r="R61" s="9"/>
       <c r="S61" s="2">
         <v>1731</v>
       </c>
       <c r="T61" s="2">
         <v>1331</v>
       </c>
-      <c r="V61" s="22"/>
+      <c r="V61" s="10"/>
       <c r="W61" s="2">
         <v>1178</v>
       </c>
       <c r="X61" s="2">
         <v>3040</v>
       </c>
-      <c r="Z61" s="22"/>
+      <c r="Z61" s="10"/>
       <c r="AA61" s="2">
         <v>4052</v>
       </c>
@@ -9352,21 +7994,21 @@
       <c r="P62" s="2">
         <v>395</v>
       </c>
-      <c r="R62" s="21"/>
+      <c r="R62" s="9"/>
       <c r="S62" s="2">
         <v>1735</v>
       </c>
       <c r="T62" s="2">
         <v>1338</v>
       </c>
-      <c r="V62" s="22"/>
+      <c r="V62" s="10"/>
       <c r="W62" s="2">
         <v>1169</v>
       </c>
       <c r="X62" s="2">
         <v>3036</v>
       </c>
-      <c r="Z62" s="22"/>
+      <c r="Z62" s="10"/>
       <c r="AA62" s="2">
         <v>4071</v>
       </c>
@@ -9411,21 +8053,21 @@
       <c r="P63" s="2">
         <v>393</v>
       </c>
-      <c r="R63" s="21"/>
+      <c r="R63" s="9"/>
       <c r="S63" s="2">
         <v>1732</v>
       </c>
       <c r="T63" s="2">
         <v>1333</v>
       </c>
-      <c r="V63" s="22"/>
+      <c r="V63" s="10"/>
       <c r="W63" s="2">
         <v>1165</v>
       </c>
       <c r="X63" s="2">
         <v>3041</v>
       </c>
-      <c r="Z63" s="22"/>
+      <c r="Z63" s="10"/>
       <c r="AA63" s="2">
         <v>4538</v>
       </c>
@@ -9470,21 +8112,21 @@
       <c r="P64" s="2">
         <v>396</v>
       </c>
-      <c r="R64" s="21"/>
+      <c r="R64" s="9"/>
       <c r="S64" s="2">
         <v>1730</v>
       </c>
       <c r="T64" s="2">
         <v>1335</v>
       </c>
-      <c r="V64" s="22"/>
+      <c r="V64" s="10"/>
       <c r="W64" s="2">
         <v>1157</v>
       </c>
       <c r="X64" s="2">
         <v>3031</v>
       </c>
-      <c r="Z64" s="22"/>
+      <c r="Z64" s="10"/>
       <c r="AA64" s="2">
         <v>4143</v>
       </c>
@@ -9529,21 +8171,21 @@
       <c r="P65" s="2">
         <v>394</v>
       </c>
-      <c r="R65" s="21"/>
+      <c r="R65" s="9"/>
       <c r="S65" s="2">
         <v>1727</v>
       </c>
       <c r="T65" s="2">
         <v>1334</v>
       </c>
-      <c r="V65" s="22"/>
+      <c r="V65" s="10"/>
       <c r="W65" s="2">
         <v>1164</v>
       </c>
       <c r="X65" s="2">
         <v>3030</v>
       </c>
-      <c r="Z65" s="22"/>
+      <c r="Z65" s="10"/>
       <c r="AA65" s="2">
         <v>4078</v>
       </c>
@@ -9588,21 +8230,21 @@
       <c r="P66" s="2">
         <v>394</v>
       </c>
-      <c r="R66" s="21"/>
+      <c r="R66" s="9"/>
       <c r="S66" s="2">
         <v>1720</v>
       </c>
       <c r="T66" s="2">
         <v>1336</v>
       </c>
-      <c r="V66" s="22"/>
+      <c r="V66" s="10"/>
       <c r="W66" s="2">
         <v>1160</v>
       </c>
       <c r="X66" s="2">
         <v>3041</v>
       </c>
-      <c r="Z66" s="22"/>
+      <c r="Z66" s="10"/>
       <c r="AA66" s="2">
         <v>4072</v>
       </c>
@@ -9647,21 +8289,21 @@
       <c r="P67" s="2">
         <v>395</v>
       </c>
-      <c r="R67" s="21"/>
+      <c r="R67" s="9"/>
       <c r="S67" s="2">
         <v>1716</v>
       </c>
       <c r="T67" s="2">
         <v>1339</v>
       </c>
-      <c r="V67" s="22"/>
+      <c r="V67" s="10"/>
       <c r="W67" s="2">
         <v>1158</v>
       </c>
       <c r="X67" s="2">
         <v>3037</v>
       </c>
-      <c r="Z67" s="22"/>
+      <c r="Z67" s="10"/>
       <c r="AA67" s="2">
         <v>4038</v>
       </c>
@@ -9706,21 +8348,21 @@
       <c r="P68" s="2">
         <v>394</v>
       </c>
-      <c r="R68" s="21"/>
+      <c r="R68" s="9"/>
       <c r="S68" s="2">
         <v>1727</v>
       </c>
       <c r="T68" s="2">
         <v>1334</v>
       </c>
-      <c r="V68" s="22"/>
+      <c r="V68" s="10"/>
       <c r="W68" s="2">
         <v>1155</v>
       </c>
       <c r="X68" s="2">
         <v>3035</v>
       </c>
-      <c r="Z68" s="22"/>
+      <c r="Z68" s="10"/>
       <c r="AA68" s="2">
         <v>4054</v>
       </c>
@@ -9765,21 +8407,21 @@
       <c r="P69" s="2">
         <v>398</v>
       </c>
-      <c r="R69" s="21"/>
+      <c r="R69" s="9"/>
       <c r="S69" s="2">
         <v>1727</v>
       </c>
       <c r="T69" s="2">
         <v>1336</v>
       </c>
-      <c r="V69" s="22"/>
+      <c r="V69" s="10"/>
       <c r="W69" s="2">
         <v>1153</v>
       </c>
       <c r="X69" s="2">
         <v>3034</v>
       </c>
-      <c r="Z69" s="22"/>
+      <c r="Z69" s="10"/>
       <c r="AA69" s="2">
         <v>4055</v>
       </c>
@@ -9824,21 +8466,21 @@
       <c r="P70" s="2">
         <v>395</v>
       </c>
-      <c r="R70" s="21"/>
+      <c r="R70" s="9"/>
       <c r="S70" s="2">
         <v>1745</v>
       </c>
       <c r="T70" s="2">
         <v>1337</v>
       </c>
-      <c r="V70" s="22"/>
+      <c r="V70" s="10"/>
       <c r="W70" s="2">
         <v>1149</v>
       </c>
       <c r="X70" s="2">
         <v>3021</v>
       </c>
-      <c r="Z70" s="22"/>
+      <c r="Z70" s="10"/>
       <c r="AA70" s="2">
         <v>4279</v>
       </c>
@@ -9883,21 +8525,21 @@
       <c r="P71" s="2">
         <v>394</v>
       </c>
-      <c r="R71" s="21"/>
+      <c r="R71" s="9"/>
       <c r="S71" s="2">
         <v>1730</v>
       </c>
       <c r="T71" s="2">
         <v>1334</v>
       </c>
-      <c r="V71" s="22"/>
+      <c r="V71" s="10"/>
       <c r="W71" s="2">
         <v>1156</v>
       </c>
       <c r="X71" s="2">
         <v>3042</v>
       </c>
-      <c r="Z71" s="22"/>
+      <c r="Z71" s="10"/>
       <c r="AA71" s="2">
         <v>4487</v>
       </c>
@@ -9942,21 +8584,21 @@
       <c r="P72" s="2">
         <v>293</v>
       </c>
-      <c r="R72" s="21"/>
+      <c r="R72" s="9"/>
       <c r="S72" s="2">
         <v>1734</v>
       </c>
       <c r="T72" s="2">
         <v>1338</v>
       </c>
-      <c r="V72" s="22"/>
+      <c r="V72" s="10"/>
       <c r="W72" s="2">
         <v>1158</v>
       </c>
       <c r="X72" s="2">
         <v>3035</v>
       </c>
-      <c r="Z72" s="22"/>
+      <c r="Z72" s="10"/>
       <c r="AA72" s="2">
         <v>4118</v>
       </c>
@@ -10001,21 +8643,21 @@
       <c r="P73" s="2">
         <v>293</v>
       </c>
-      <c r="R73" s="21"/>
+      <c r="R73" s="9"/>
       <c r="S73" s="2">
         <v>1720</v>
       </c>
       <c r="T73" s="2">
         <v>1335</v>
       </c>
-      <c r="V73" s="22"/>
+      <c r="V73" s="10"/>
       <c r="W73" s="2">
         <v>1164</v>
       </c>
       <c r="X73" s="2">
         <v>3028</v>
       </c>
-      <c r="Z73" s="22"/>
+      <c r="Z73" s="10"/>
       <c r="AA73" s="2">
         <v>4106</v>
       </c>
@@ -10060,21 +8702,21 @@
       <c r="P74" s="2">
         <v>394</v>
       </c>
-      <c r="R74" s="21"/>
+      <c r="R74" s="9"/>
       <c r="S74" s="2">
         <v>1729</v>
       </c>
       <c r="T74" s="2">
         <v>1336</v>
       </c>
-      <c r="V74" s="22"/>
+      <c r="V74" s="10"/>
       <c r="W74" s="2">
         <v>1155</v>
       </c>
       <c r="X74" s="2">
         <v>3036</v>
       </c>
-      <c r="Z74" s="22"/>
+      <c r="Z74" s="10"/>
       <c r="AA74" s="2">
         <v>4074</v>
       </c>
@@ -10119,21 +8761,21 @@
       <c r="P75" s="2">
         <v>395</v>
       </c>
-      <c r="R75" s="21"/>
+      <c r="R75" s="9"/>
       <c r="S75" s="2">
         <v>1728</v>
       </c>
       <c r="T75" s="2">
         <v>1336</v>
       </c>
-      <c r="V75" s="22"/>
+      <c r="V75" s="10"/>
       <c r="W75" s="2">
         <v>1158</v>
       </c>
       <c r="X75" s="2">
         <v>3052</v>
       </c>
-      <c r="Z75" s="22"/>
+      <c r="Z75" s="10"/>
       <c r="AA75" s="2">
         <v>4087</v>
       </c>
@@ -10178,21 +8820,21 @@
       <c r="P76" s="2">
         <v>394</v>
       </c>
-      <c r="R76" s="21"/>
+      <c r="R76" s="9"/>
       <c r="S76" s="2">
         <v>1724</v>
       </c>
       <c r="T76" s="2">
         <v>1336</v>
       </c>
-      <c r="V76" s="22"/>
+      <c r="V76" s="10"/>
       <c r="W76" s="2">
         <v>1156</v>
       </c>
       <c r="X76" s="2">
         <v>3044</v>
       </c>
-      <c r="Z76" s="22"/>
+      <c r="Z76" s="10"/>
       <c r="AA76" s="2">
         <v>4067</v>
       </c>
@@ -10237,21 +8879,21 @@
       <c r="P77" s="2">
         <v>400</v>
       </c>
-      <c r="R77" s="21"/>
+      <c r="R77" s="9"/>
       <c r="S77" s="2">
         <v>1727</v>
       </c>
       <c r="T77" s="2">
         <v>1338</v>
       </c>
-      <c r="V77" s="22"/>
+      <c r="V77" s="10"/>
       <c r="W77" s="2">
         <v>1152</v>
       </c>
       <c r="X77" s="2">
         <v>3052</v>
       </c>
-      <c r="Z77" s="22"/>
+      <c r="Z77" s="10"/>
       <c r="AA77" s="2">
         <v>4089</v>
       </c>
@@ -10296,21 +8938,21 @@
       <c r="P78" s="2">
         <v>394</v>
       </c>
-      <c r="R78" s="21"/>
+      <c r="R78" s="9"/>
       <c r="S78" s="2">
         <v>1720</v>
       </c>
       <c r="T78" s="2">
         <v>1334</v>
       </c>
-      <c r="V78" s="22"/>
+      <c r="V78" s="10"/>
       <c r="W78" s="2">
         <v>1163</v>
       </c>
       <c r="X78" s="2">
         <v>3037</v>
       </c>
-      <c r="Z78" s="22"/>
+      <c r="Z78" s="10"/>
       <c r="AA78" s="2">
         <v>4521</v>
       </c>
@@ -10355,21 +8997,21 @@
       <c r="P79" s="2">
         <v>394</v>
       </c>
-      <c r="R79" s="21"/>
+      <c r="R79" s="9"/>
       <c r="S79" s="2">
         <v>1714</v>
       </c>
       <c r="T79" s="2">
         <v>1335</v>
       </c>
-      <c r="V79" s="22"/>
+      <c r="V79" s="10"/>
       <c r="W79" s="2">
         <v>1163</v>
       </c>
       <c r="X79" s="2">
         <v>3038</v>
       </c>
-      <c r="Z79" s="22"/>
+      <c r="Z79" s="10"/>
       <c r="AA79" s="2">
         <v>4111</v>
       </c>
@@ -10414,21 +9056,21 @@
       <c r="P80" s="2">
         <v>395</v>
       </c>
-      <c r="R80" s="21"/>
+      <c r="R80" s="9"/>
       <c r="S80" s="2">
         <v>1725</v>
       </c>
       <c r="T80" s="2">
         <v>1338</v>
       </c>
-      <c r="V80" s="22"/>
+      <c r="V80" s="10"/>
       <c r="W80" s="2">
         <v>1226</v>
       </c>
       <c r="X80" s="2">
         <v>3039</v>
       </c>
-      <c r="Z80" s="22"/>
+      <c r="Z80" s="10"/>
       <c r="AA80" s="2">
         <v>4094</v>
       </c>
@@ -10473,21 +9115,21 @@
       <c r="P81" s="2">
         <v>395</v>
       </c>
-      <c r="R81" s="21"/>
+      <c r="R81" s="9"/>
       <c r="S81" s="2">
         <v>1723</v>
       </c>
       <c r="T81" s="2">
         <v>1338</v>
       </c>
-      <c r="V81" s="22"/>
+      <c r="V81" s="10"/>
       <c r="W81" s="2">
         <v>1273</v>
       </c>
       <c r="X81" s="2">
         <v>3033</v>
       </c>
-      <c r="Z81" s="22"/>
+      <c r="Z81" s="10"/>
       <c r="AA81" s="2">
         <v>4068</v>
       </c>
@@ -10532,21 +9174,21 @@
       <c r="P82" s="2">
         <v>394</v>
       </c>
-      <c r="R82" s="21"/>
+      <c r="R82" s="9"/>
       <c r="S82" s="2">
         <v>1727</v>
       </c>
       <c r="T82" s="2">
         <v>1333</v>
       </c>
-      <c r="V82" s="22"/>
+      <c r="V82" s="10"/>
       <c r="W82" s="2">
         <v>1278</v>
       </c>
       <c r="X82" s="2">
         <v>3041</v>
       </c>
-      <c r="Z82" s="22"/>
+      <c r="Z82" s="10"/>
       <c r="AA82" s="2">
         <v>4069</v>
       </c>
@@ -10591,21 +9233,21 @@
       <c r="P83" s="2">
         <v>393</v>
       </c>
-      <c r="R83" s="21"/>
+      <c r="R83" s="9"/>
       <c r="S83" s="2">
         <v>1733</v>
       </c>
       <c r="T83" s="2">
         <v>1339</v>
       </c>
-      <c r="V83" s="22"/>
+      <c r="V83" s="10"/>
       <c r="W83" s="2">
         <v>1314</v>
       </c>
       <c r="X83" s="2">
         <v>3046</v>
       </c>
-      <c r="Z83" s="22"/>
+      <c r="Z83" s="10"/>
       <c r="AA83" s="2">
         <v>4084</v>
       </c>
@@ -10650,21 +9292,21 @@
       <c r="P84" s="2">
         <v>400</v>
       </c>
-      <c r="R84" s="21"/>
+      <c r="R84" s="9"/>
       <c r="S84" s="2">
         <v>1727</v>
       </c>
       <c r="T84" s="2">
         <v>1336</v>
       </c>
-      <c r="V84" s="22"/>
+      <c r="V84" s="10"/>
       <c r="W84" s="2">
         <v>1284</v>
       </c>
       <c r="X84" s="2">
         <v>3033</v>
       </c>
-      <c r="Z84" s="22"/>
+      <c r="Z84" s="10"/>
       <c r="AA84" s="2">
         <v>4043</v>
       </c>
@@ -10709,21 +9351,21 @@
       <c r="P85" s="2">
         <v>395</v>
       </c>
-      <c r="R85" s="21"/>
+      <c r="R85" s="9"/>
       <c r="S85" s="2">
         <v>1729</v>
       </c>
       <c r="T85" s="2">
         <v>1333</v>
       </c>
-      <c r="V85" s="22"/>
+      <c r="V85" s="10"/>
       <c r="W85" s="2">
         <v>1199</v>
       </c>
       <c r="X85" s="2">
         <v>3043</v>
       </c>
-      <c r="Z85" s="22"/>
+      <c r="Z85" s="10"/>
       <c r="AA85" s="2">
         <v>4270</v>
       </c>
@@ -10768,21 +9410,21 @@
       <c r="P86" s="2">
         <v>394</v>
       </c>
-      <c r="R86" s="21"/>
+      <c r="R86" s="9"/>
       <c r="S86" s="2">
         <v>1721</v>
       </c>
       <c r="T86" s="2">
         <v>1336</v>
       </c>
-      <c r="V86" s="22"/>
+      <c r="V86" s="10"/>
       <c r="W86" s="2">
         <v>1188</v>
       </c>
       <c r="X86" s="2">
         <v>3035</v>
       </c>
-      <c r="Z86" s="22"/>
+      <c r="Z86" s="10"/>
       <c r="AA86" s="2">
         <v>4259</v>
       </c>
@@ -10827,21 +9469,21 @@
       <c r="P87" s="2">
         <v>395</v>
       </c>
-      <c r="R87" s="21"/>
+      <c r="R87" s="9"/>
       <c r="S87" s="2">
         <v>1716</v>
       </c>
       <c r="T87" s="2">
         <v>1334</v>
       </c>
-      <c r="V87" s="22"/>
+      <c r="V87" s="10"/>
       <c r="W87" s="2">
         <v>1174</v>
       </c>
       <c r="X87" s="2">
         <v>3042</v>
       </c>
-      <c r="Z87" s="22"/>
+      <c r="Z87" s="10"/>
       <c r="AA87" s="2">
         <v>4080</v>
       </c>
@@ -10886,21 +9528,21 @@
       <c r="P88" s="2">
         <v>394</v>
       </c>
-      <c r="R88" s="21"/>
+      <c r="R88" s="9"/>
       <c r="S88" s="2">
         <v>1728</v>
       </c>
       <c r="T88" s="2">
         <v>1338</v>
       </c>
-      <c r="V88" s="22"/>
+      <c r="V88" s="10"/>
       <c r="W88" s="2">
         <v>1173</v>
       </c>
       <c r="X88" s="2">
         <v>3029</v>
       </c>
-      <c r="Z88" s="22"/>
+      <c r="Z88" s="10"/>
       <c r="AA88" s="2">
         <v>4077</v>
       </c>
@@ -10945,21 +9587,21 @@
       <c r="P89" s="2">
         <v>294</v>
       </c>
-      <c r="R89" s="21"/>
+      <c r="R89" s="9"/>
       <c r="S89" s="2">
         <v>1722</v>
       </c>
       <c r="T89" s="2">
         <v>1336</v>
       </c>
-      <c r="V89" s="22"/>
+      <c r="V89" s="10"/>
       <c r="W89" s="2">
         <v>1175</v>
       </c>
       <c r="X89" s="2">
         <v>3038</v>
       </c>
-      <c r="Z89" s="22"/>
+      <c r="Z89" s="10"/>
       <c r="AA89" s="2">
         <v>4073</v>
       </c>
@@ -11004,21 +9646,21 @@
       <c r="P90" s="2">
         <v>296</v>
       </c>
-      <c r="R90" s="21"/>
+      <c r="R90" s="9"/>
       <c r="S90" s="2">
         <v>1724</v>
       </c>
       <c r="T90" s="2">
         <v>1340</v>
       </c>
-      <c r="V90" s="22"/>
+      <c r="V90" s="10"/>
       <c r="W90" s="2">
         <v>1171</v>
       </c>
       <c r="X90" s="2">
         <v>3049</v>
       </c>
-      <c r="Z90" s="22"/>
+      <c r="Z90" s="10"/>
       <c r="AA90" s="2">
         <v>4073</v>
       </c>
@@ -11063,21 +9705,21 @@
       <c r="P91" s="2">
         <v>388</v>
       </c>
-      <c r="R91" s="21"/>
+      <c r="R91" s="9"/>
       <c r="S91" s="2">
         <v>1733</v>
       </c>
       <c r="T91" s="2">
         <v>1338</v>
       </c>
-      <c r="V91" s="22"/>
+      <c r="V91" s="10"/>
       <c r="W91" s="2">
         <v>1164</v>
       </c>
       <c r="X91" s="2">
         <v>3033</v>
       </c>
-      <c r="Z91" s="22"/>
+      <c r="Z91" s="10"/>
       <c r="AA91" s="2">
         <v>4062</v>
       </c>
@@ -11122,21 +9764,21 @@
       <c r="P92" s="2">
         <v>400</v>
       </c>
-      <c r="R92" s="21"/>
+      <c r="R92" s="9"/>
       <c r="S92" s="2">
         <v>1716</v>
       </c>
       <c r="T92" s="2">
         <v>1337</v>
       </c>
-      <c r="V92" s="22"/>
+      <c r="V92" s="10"/>
       <c r="W92" s="2">
         <v>1170</v>
       </c>
       <c r="X92" s="2">
         <v>3033</v>
       </c>
-      <c r="Z92" s="22"/>
+      <c r="Z92" s="10"/>
       <c r="AA92" s="2">
         <v>4081</v>
       </c>
@@ -11181,21 +9823,21 @@
       <c r="P93" s="2">
         <v>251</v>
       </c>
-      <c r="R93" s="21"/>
+      <c r="R93" s="9"/>
       <c r="S93" s="2">
         <v>1722</v>
       </c>
       <c r="T93" s="2">
         <v>1337</v>
       </c>
-      <c r="V93" s="22"/>
+      <c r="V93" s="10"/>
       <c r="W93" s="2">
         <v>1158</v>
       </c>
       <c r="X93" s="2">
         <v>3032</v>
       </c>
-      <c r="Z93" s="22"/>
+      <c r="Z93" s="10"/>
       <c r="AA93" s="2">
         <v>4084</v>
       </c>
@@ -11240,21 +9882,21 @@
       <c r="P94" s="2">
         <v>234</v>
       </c>
-      <c r="R94" s="21"/>
+      <c r="R94" s="9"/>
       <c r="S94" s="2">
         <v>1723</v>
       </c>
       <c r="T94" s="2">
         <v>1336</v>
       </c>
-      <c r="V94" s="22"/>
+      <c r="V94" s="10"/>
       <c r="W94" s="2">
         <v>1164</v>
       </c>
       <c r="X94" s="2">
         <v>3036</v>
       </c>
-      <c r="Z94" s="22"/>
+      <c r="Z94" s="10"/>
       <c r="AA94" s="2">
         <v>4118</v>
       </c>
@@ -11299,21 +9941,21 @@
       <c r="P95" s="2">
         <v>235</v>
       </c>
-      <c r="R95" s="21"/>
+      <c r="R95" s="9"/>
       <c r="S95" s="2">
         <v>1730</v>
       </c>
       <c r="T95" s="2">
         <v>1332</v>
       </c>
-      <c r="V95" s="22"/>
+      <c r="V95" s="10"/>
       <c r="W95" s="2">
         <v>1169</v>
       </c>
       <c r="X95" s="2">
         <v>3033</v>
       </c>
-      <c r="Z95" s="22"/>
+      <c r="Z95" s="10"/>
       <c r="AA95" s="2">
         <v>4118</v>
       </c>
@@ -11358,21 +10000,21 @@
       <c r="P96" s="2">
         <v>235</v>
       </c>
-      <c r="R96" s="21"/>
+      <c r="R96" s="9"/>
       <c r="S96" s="2">
         <v>1720</v>
       </c>
       <c r="T96" s="2">
         <v>1337</v>
       </c>
-      <c r="V96" s="22"/>
+      <c r="V96" s="10"/>
       <c r="W96" s="2">
         <v>1174</v>
       </c>
       <c r="X96" s="2">
         <v>3041</v>
       </c>
-      <c r="Z96" s="22"/>
+      <c r="Z96" s="10"/>
       <c r="AA96" s="2">
         <v>4062</v>
       </c>
@@ -11417,21 +10059,21 @@
       <c r="P97" s="2">
         <v>234</v>
       </c>
-      <c r="R97" s="21"/>
+      <c r="R97" s="9"/>
       <c r="S97" s="2">
         <v>1724</v>
       </c>
       <c r="T97" s="2">
         <v>1341</v>
       </c>
-      <c r="V97" s="22"/>
+      <c r="V97" s="10"/>
       <c r="W97" s="2">
         <v>1164</v>
       </c>
       <c r="X97" s="2">
         <v>3029</v>
       </c>
-      <c r="Z97" s="22"/>
+      <c r="Z97" s="10"/>
       <c r="AA97" s="2">
         <v>4089</v>
       </c>
@@ -11476,21 +10118,21 @@
       <c r="P98" s="2">
         <v>235</v>
       </c>
-      <c r="R98" s="21"/>
+      <c r="R98" s="9"/>
       <c r="S98" s="2">
         <v>1714</v>
       </c>
       <c r="T98" s="2">
         <v>1338</v>
       </c>
-      <c r="V98" s="22"/>
+      <c r="V98" s="10"/>
       <c r="W98" s="2">
         <v>1158</v>
       </c>
       <c r="X98" s="2">
         <v>3044</v>
       </c>
-      <c r="Z98" s="22"/>
+      <c r="Z98" s="10"/>
       <c r="AA98" s="2">
         <v>4089</v>
       </c>
@@ -11535,21 +10177,21 @@
       <c r="P99" s="2">
         <v>235</v>
       </c>
-      <c r="R99" s="21"/>
+      <c r="R99" s="9"/>
       <c r="S99" s="2">
         <v>1717</v>
       </c>
       <c r="T99" s="2">
         <v>1339</v>
       </c>
-      <c r="V99" s="22"/>
+      <c r="V99" s="10"/>
       <c r="W99" s="2">
         <v>1150</v>
       </c>
       <c r="X99" s="2">
         <v>3035</v>
       </c>
-      <c r="Z99" s="22"/>
+      <c r="Z99" s="10"/>
       <c r="AA99" s="2">
         <v>4093</v>
       </c>
@@ -11594,21 +10236,21 @@
       <c r="P100" s="2">
         <v>235</v>
       </c>
-      <c r="R100" s="21"/>
+      <c r="R100" s="9"/>
       <c r="S100" s="2">
         <v>1729</v>
       </c>
       <c r="T100" s="2">
         <v>1335</v>
       </c>
-      <c r="V100" s="22"/>
+      <c r="V100" s="10"/>
       <c r="W100" s="2">
         <v>1153</v>
       </c>
       <c r="X100" s="2">
         <v>3040</v>
       </c>
-      <c r="Z100" s="22"/>
+      <c r="Z100" s="10"/>
       <c r="AA100" s="2">
         <v>4182</v>
       </c>
@@ -11653,21 +10295,21 @@
       <c r="P101" s="2">
         <v>234</v>
       </c>
-      <c r="R101" s="21"/>
+      <c r="R101" s="9"/>
       <c r="S101" s="2">
         <v>1719</v>
       </c>
       <c r="T101" s="2">
         <v>1335</v>
       </c>
-      <c r="V101" s="22"/>
+      <c r="V101" s="10"/>
       <c r="W101" s="2">
         <v>1152</v>
       </c>
       <c r="X101" s="2">
         <v>3039</v>
       </c>
-      <c r="Z101" s="22"/>
+      <c r="Z101" s="10"/>
       <c r="AA101" s="2">
         <v>4110</v>
       </c>
@@ -11712,21 +10354,21 @@
       <c r="P102" s="2">
         <v>234</v>
       </c>
-      <c r="R102" s="21"/>
+      <c r="R102" s="9"/>
       <c r="S102" s="2">
         <v>1719</v>
       </c>
       <c r="T102" s="2">
         <v>1335</v>
       </c>
-      <c r="V102" s="22"/>
+      <c r="V102" s="10"/>
       <c r="W102" s="2">
         <v>1156</v>
       </c>
       <c r="X102" s="2">
         <v>3036</v>
       </c>
-      <c r="Z102" s="22"/>
+      <c r="Z102" s="10"/>
       <c r="AA102" s="2">
         <v>4452</v>
       </c>
@@ -11771,21 +10413,21 @@
       <c r="P103" s="2">
         <v>235</v>
       </c>
-      <c r="R103" s="21"/>
+      <c r="R103" s="9"/>
       <c r="S103" s="2">
         <v>1720</v>
       </c>
       <c r="T103" s="2">
         <v>1336</v>
       </c>
-      <c r="V103" s="22"/>
+      <c r="V103" s="10"/>
       <c r="W103" s="2">
         <v>1166</v>
       </c>
       <c r="X103" s="2">
         <v>3044</v>
       </c>
-      <c r="Z103" s="22"/>
+      <c r="Z103" s="10"/>
       <c r="AA103" s="2">
         <v>4076</v>
       </c>
@@ -11794,41 +10436,41 @@
       </c>
     </row>
     <row r="104" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B104" s="21" t="s">
+      <c r="B104" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="21"/>
-      <c r="D104" s="21"/>
-      <c r="F104" s="21" t="s">
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="F104" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
-      <c r="J104" s="21" t="s">
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="J104" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
-      <c r="N104" s="21" t="s">
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="N104" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O104" s="21"/>
-      <c r="P104" s="21"/>
-      <c r="R104" s="21" t="s">
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="R104" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S104" s="21"/>
-      <c r="T104" s="21"/>
-      <c r="V104" s="21" t="s">
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="V104" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="W104" s="21"/>
-      <c r="X104" s="21"/>
-      <c r="Z104" s="21" t="s">
+      <c r="W104" s="9"/>
+      <c r="X104" s="9"/>
+      <c r="Z104" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AA104" s="21"/>
-      <c r="AB104" s="21"/>
+      <c r="AA104" s="9"/>
+      <c r="AB104" s="9"/>
     </row>
     <row r="105" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B105" s="2">
@@ -11924,141 +10566,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9980FA75-0FD8-A448-82AA-5AA0CC5094F6}">
   <dimension ref="B1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="9" width="8.33203125" customWidth="1"/>
+    <col min="3" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="9" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="6">
         <v>6</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="7">
         <v>8</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="7">
         <v>9</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="7">
         <v>10</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="7">
         <v>12</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="7">
         <v>13</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="14">
-        <f>'Dane poszczególne'!B105</f>
-        <v>32</v>
-      </c>
-      <c r="D3" s="15">
-        <f>'Dane poszczególne'!F105</f>
-        <v>1041</v>
-      </c>
-      <c r="E3" s="15">
-        <f>'Dane poszczególne'!J105</f>
-        <v>7236</v>
-      </c>
-      <c r="F3" s="15">
-        <f>'Dane poszczególne'!N105</f>
-        <v>68851</v>
-      </c>
-      <c r="G3" s="15">
-        <f>'Dane poszczególne'!R105</f>
-        <v>8363000</v>
-      </c>
-      <c r="H3" s="15" t="str">
+    <row r="3" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13">
+        <v>118</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1641</v>
+      </c>
+      <c r="E3" s="14">
+        <v>11371</v>
+      </c>
+      <c r="F3" s="14">
+        <v>102757</v>
+      </c>
+      <c r="G3" s="14">
+        <v>12171000</v>
+      </c>
+      <c r="H3" s="14" t="str">
         <f>'Dane poszczególne'!V105</f>
         <v>N/A</v>
       </c>
-      <c r="I3" s="16" t="str">
+      <c r="I3" s="15" t="str">
         <f>'Dane poszczególne'!Z105</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9">
-        <f>'Dane poszczególne'!C105</f>
-        <v>21</v>
-      </c>
-      <c r="D4" s="5">
-        <f>'Dane poszczególne'!G105</f>
-        <v>305</v>
-      </c>
-      <c r="E4" s="5">
-        <f>'Dane poszczególne'!K105</f>
-        <v>274</v>
-      </c>
-      <c r="F4" s="5">
-        <f>'Dane poszczególne'!O105</f>
-        <v>139</v>
-      </c>
-      <c r="G4" s="5">
-        <f>'Dane poszczególne'!S105</f>
-        <v>3368</v>
-      </c>
-      <c r="H4" s="5">
-        <f>'Dane poszczególne'!W105</f>
-        <v>3617</v>
-      </c>
-      <c r="I4" s="6">
-        <f>'Dane poszczególne'!AA105</f>
-        <v>4139</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="10">
-        <f>'Dane poszczególne'!D105</f>
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <f>'Dane poszczególne'!H105</f>
-        <v>31</v>
-      </c>
-      <c r="E5" s="7">
-        <f>'Dane poszczególne'!L105</f>
-        <v>114</v>
-      </c>
-      <c r="F5" s="7">
-        <f>'Dane poszczególne'!P105</f>
-        <v>367</v>
-      </c>
-      <c r="G5" s="7">
-        <f>'Dane poszczególne'!T105</f>
-        <v>1479</v>
-      </c>
-      <c r="H5" s="7">
-        <f>'Dane poszczególne'!X105</f>
-        <v>3034</v>
-      </c>
-      <c r="I5" s="8">
-        <f>'Dane poszczególne'!AB105</f>
-        <v>6923</v>
-      </c>
+    <row r="4" spans="2:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="16">
+        <v>181</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1113</v>
+      </c>
+      <c r="E4" s="17">
+        <v>3642</v>
+      </c>
+      <c r="F4" s="17">
+        <v>4261</v>
+      </c>
+      <c r="G4" s="17">
+        <v>77462</v>
+      </c>
+      <c r="H4" s="17">
+        <v>109396</v>
+      </c>
+      <c r="I4" s="18">
+        <v>407387</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>

--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateuszmuziol/Documents/PEA/PEA Projekt 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0546EF-BE07-FF4C-8CED-6228C813A7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2052560A-EB6E-8A48-8BBC-574A189F7CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,9 +335,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -382,6 +379,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,11 +482,9 @@
             <c:v>Brute Force</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -508,6 +506,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="40134"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Wyniki uśrednione + tabelki'!$C$2:$I$2</c:f>
@@ -576,11 +624,9 @@
             <c:v>Branch &amp; Bound</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -602,6 +648,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Wyniki uśrednione + tabelki'!$C$2:$I$2</c:f>
@@ -1106,11 +1196,9 @@
             <c:v>Przegląd zupełny</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1132,6 +1220,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Wyniki uśrednione + tabelki'!$C$2:$G$2</c:f>
@@ -1672,12 +1804,11 @@
             <c:v>Branch &amp; Bound</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1698,6 +1829,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Wyniki uśrednione + tabelki'!$C$2:$I$2</c:f>
@@ -4330,41 +4505,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>6</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="F2" s="9">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="8">
         <v>8</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="J2" s="9">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="J2" s="8">
         <v>9</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="N2" s="9">
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="N2" s="8">
         <v>10</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="R2" s="9">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="R2" s="8">
         <v>12</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="V2" s="9">
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="V2" s="8">
         <v>13</v>
       </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Z2" s="9">
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Z2" s="8">
         <v>14</v>
       </c>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -4477,7 +4652,7 @@
       <c r="T4" s="2">
         <v>2283</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="W4" s="2">
@@ -4486,7 +4661,7 @@
       <c r="X4" s="2">
         <v>3235</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="AA4" s="2">
@@ -4542,14 +4717,14 @@
       <c r="T5" s="2">
         <v>2259</v>
       </c>
-      <c r="V5" s="10"/>
+      <c r="V5" s="9"/>
       <c r="W5" s="2">
         <v>16445</v>
       </c>
       <c r="X5" s="2">
         <v>3008</v>
       </c>
-      <c r="Z5" s="10"/>
+      <c r="Z5" s="9"/>
       <c r="AA5" s="2">
         <v>3932</v>
       </c>
@@ -4603,14 +4778,14 @@
       <c r="T6" s="2">
         <v>2253</v>
       </c>
-      <c r="V6" s="10"/>
+      <c r="V6" s="9"/>
       <c r="W6" s="2">
         <v>16030</v>
       </c>
       <c r="X6" s="2">
         <v>3004</v>
       </c>
-      <c r="Z6" s="10"/>
+      <c r="Z6" s="9"/>
       <c r="AA6" s="2">
         <v>4038</v>
       </c>
@@ -4664,14 +4839,14 @@
       <c r="T7" s="2">
         <v>2249</v>
       </c>
-      <c r="V7" s="10"/>
+      <c r="V7" s="9"/>
       <c r="W7" s="2">
         <v>16604</v>
       </c>
       <c r="X7" s="2">
         <v>3016</v>
       </c>
-      <c r="Z7" s="10"/>
+      <c r="Z7" s="9"/>
       <c r="AA7" s="2">
         <v>4043</v>
       </c>
@@ -4725,14 +4900,14 @@
       <c r="T8" s="2">
         <v>1967</v>
       </c>
-      <c r="V8" s="10"/>
+      <c r="V8" s="9"/>
       <c r="W8" s="2">
         <v>16080</v>
       </c>
       <c r="X8" s="2">
         <v>3001</v>
       </c>
-      <c r="Z8" s="10"/>
+      <c r="Z8" s="9"/>
       <c r="AA8" s="2">
         <v>4020</v>
       </c>
@@ -4786,14 +4961,14 @@
       <c r="T9" s="2">
         <v>2255</v>
       </c>
-      <c r="V9" s="10"/>
+      <c r="V9" s="9"/>
       <c r="W9" s="2">
         <v>16591</v>
       </c>
       <c r="X9" s="2">
         <v>3005</v>
       </c>
-      <c r="Z9" s="10"/>
+      <c r="Z9" s="9"/>
       <c r="AA9" s="2">
         <v>4012</v>
       </c>
@@ -4847,14 +5022,14 @@
       <c r="T10" s="2">
         <v>2188</v>
       </c>
-      <c r="V10" s="10"/>
+      <c r="V10" s="9"/>
       <c r="W10" s="2">
         <v>16141</v>
       </c>
       <c r="X10" s="2">
         <v>3007</v>
       </c>
-      <c r="Z10" s="10"/>
+      <c r="Z10" s="9"/>
       <c r="AA10" s="2">
         <v>4246</v>
       </c>
@@ -4908,14 +5083,14 @@
       <c r="T11" s="2">
         <v>2153</v>
       </c>
-      <c r="V11" s="10"/>
+      <c r="V11" s="9"/>
       <c r="W11" s="2">
         <v>16704</v>
       </c>
       <c r="X11" s="2">
         <v>3019</v>
       </c>
-      <c r="Z11" s="10"/>
+      <c r="Z11" s="9"/>
       <c r="AA11" s="2">
         <v>4486</v>
       </c>
@@ -4969,14 +5144,14 @@
       <c r="T12" s="2">
         <v>2233</v>
       </c>
-      <c r="V12" s="10"/>
+      <c r="V12" s="9"/>
       <c r="W12" s="2">
         <v>16091</v>
       </c>
       <c r="X12" s="2">
         <v>3002</v>
       </c>
-      <c r="Z12" s="10"/>
+      <c r="Z12" s="9"/>
       <c r="AA12" s="2">
         <v>4089</v>
       </c>
@@ -5030,14 +5205,14 @@
       <c r="T13" s="2">
         <v>2248</v>
       </c>
-      <c r="V13" s="10"/>
+      <c r="V13" s="9"/>
       <c r="W13" s="2">
         <v>16657</v>
       </c>
       <c r="X13" s="2">
         <v>3001</v>
       </c>
-      <c r="Z13" s="10"/>
+      <c r="Z13" s="9"/>
       <c r="AA13" s="2">
         <v>4065</v>
       </c>
@@ -5091,14 +5266,14 @@
       <c r="T14" s="2">
         <v>2235</v>
       </c>
-      <c r="V14" s="10"/>
+      <c r="V14" s="9"/>
       <c r="W14" s="2">
         <v>16109</v>
       </c>
       <c r="X14" s="2">
         <v>3008</v>
       </c>
-      <c r="Z14" s="10"/>
+      <c r="Z14" s="9"/>
       <c r="AA14" s="2">
         <v>4049</v>
       </c>
@@ -5152,14 +5327,14 @@
       <c r="T15" s="2">
         <v>2233</v>
       </c>
-      <c r="V15" s="10"/>
+      <c r="V15" s="9"/>
       <c r="W15" s="2">
         <v>16644</v>
       </c>
       <c r="X15" s="2">
         <v>3026</v>
       </c>
-      <c r="Z15" s="10"/>
+      <c r="Z15" s="9"/>
       <c r="AA15" s="2">
         <v>4034</v>
       </c>
@@ -5213,14 +5388,14 @@
       <c r="T16" s="2">
         <v>2235</v>
       </c>
-      <c r="V16" s="10"/>
+      <c r="V16" s="9"/>
       <c r="W16" s="2">
         <v>16336</v>
       </c>
       <c r="X16" s="2">
         <v>3015</v>
       </c>
-      <c r="Z16" s="10"/>
+      <c r="Z16" s="9"/>
       <c r="AA16" s="2">
         <v>4039</v>
       </c>
@@ -5274,14 +5449,14 @@
       <c r="T17" s="2">
         <v>1935</v>
       </c>
-      <c r="V17" s="10"/>
+      <c r="V17" s="9"/>
       <c r="W17" s="2">
         <v>16506</v>
       </c>
       <c r="X17" s="2">
         <v>3011</v>
       </c>
-      <c r="Z17" s="10"/>
+      <c r="Z17" s="9"/>
       <c r="AA17" s="2">
         <v>4065</v>
       </c>
@@ -5335,14 +5510,14 @@
       <c r="T18" s="2">
         <v>1923</v>
       </c>
-      <c r="V18" s="10"/>
+      <c r="V18" s="9"/>
       <c r="W18" s="2">
         <v>16582</v>
       </c>
       <c r="X18" s="2">
         <v>3012</v>
       </c>
-      <c r="Z18" s="10"/>
+      <c r="Z18" s="9"/>
       <c r="AA18" s="2">
         <v>4526</v>
       </c>
@@ -5396,14 +5571,14 @@
       <c r="T19" s="2">
         <v>2234</v>
       </c>
-      <c r="V19" s="10"/>
+      <c r="V19" s="9"/>
       <c r="W19" s="2">
         <v>16193</v>
       </c>
       <c r="X19" s="2">
         <v>3028</v>
       </c>
-      <c r="Z19" s="10"/>
+      <c r="Z19" s="9"/>
       <c r="AA19" s="2">
         <v>4088</v>
       </c>
@@ -5457,14 +5632,14 @@
       <c r="T20" s="2">
         <v>2230</v>
       </c>
-      <c r="V20" s="10"/>
+      <c r="V20" s="9"/>
       <c r="W20" s="2">
         <v>1171</v>
       </c>
       <c r="X20" s="2">
         <v>3041</v>
       </c>
-      <c r="Z20" s="10"/>
+      <c r="Z20" s="9"/>
       <c r="AA20" s="2">
         <v>4050</v>
       </c>
@@ -5518,14 +5693,14 @@
       <c r="T21" s="2">
         <v>1328</v>
       </c>
-      <c r="V21" s="10"/>
+      <c r="V21" s="9"/>
       <c r="W21" s="2">
         <v>1166</v>
       </c>
       <c r="X21" s="2">
         <v>3032</v>
       </c>
-      <c r="Z21" s="10"/>
+      <c r="Z21" s="9"/>
       <c r="AA21" s="2">
         <v>4076</v>
       </c>
@@ -5579,14 +5754,14 @@
       <c r="T22" s="2">
         <v>1331</v>
       </c>
-      <c r="V22" s="10"/>
+      <c r="V22" s="9"/>
       <c r="W22" s="2">
         <v>1168</v>
       </c>
       <c r="X22" s="2">
         <v>3022</v>
       </c>
-      <c r="Z22" s="10"/>
+      <c r="Z22" s="9"/>
       <c r="AA22" s="2">
         <v>4040</v>
       </c>
@@ -5640,14 +5815,14 @@
       <c r="T23" s="2">
         <v>1326</v>
       </c>
-      <c r="V23" s="10"/>
+      <c r="V23" s="9"/>
       <c r="W23" s="2">
         <v>1154</v>
       </c>
       <c r="X23" s="2">
         <v>3038</v>
       </c>
-      <c r="Z23" s="10"/>
+      <c r="Z23" s="9"/>
       <c r="AA23" s="2">
         <v>4048</v>
       </c>
@@ -5701,14 +5876,14 @@
       <c r="T24" s="2">
         <v>1323</v>
       </c>
-      <c r="V24" s="10"/>
+      <c r="V24" s="9"/>
       <c r="W24" s="2">
         <v>1155</v>
       </c>
       <c r="X24" s="2">
         <v>3026</v>
       </c>
-      <c r="Z24" s="10"/>
+      <c r="Z24" s="9"/>
       <c r="AA24" s="2">
         <v>4054</v>
       </c>
@@ -5762,14 +5937,14 @@
       <c r="T25" s="2">
         <v>1332</v>
       </c>
-      <c r="V25" s="10"/>
+      <c r="V25" s="9"/>
       <c r="W25" s="2">
         <v>1159</v>
       </c>
       <c r="X25" s="2">
         <v>3033</v>
       </c>
-      <c r="Z25" s="10"/>
+      <c r="Z25" s="9"/>
       <c r="AA25" s="2">
         <v>4269</v>
       </c>
@@ -5823,14 +5998,14 @@
       <c r="T26" s="2">
         <v>1328</v>
       </c>
-      <c r="V26" s="10"/>
+      <c r="V26" s="9"/>
       <c r="W26" s="2">
         <v>1173</v>
       </c>
       <c r="X26" s="2">
         <v>3036</v>
       </c>
-      <c r="Z26" s="10"/>
+      <c r="Z26" s="9"/>
       <c r="AA26" s="2">
         <v>4523</v>
       </c>
@@ -5884,14 +6059,14 @@
       <c r="T27" s="2">
         <v>1334</v>
       </c>
-      <c r="V27" s="10"/>
+      <c r="V27" s="9"/>
       <c r="W27" s="2">
         <v>1174</v>
       </c>
       <c r="X27" s="2">
         <v>3028</v>
       </c>
-      <c r="Z27" s="10"/>
+      <c r="Z27" s="9"/>
       <c r="AA27" s="2">
         <v>4123</v>
       </c>
@@ -5945,14 +6120,14 @@
       <c r="T28" s="2">
         <v>1336</v>
       </c>
-      <c r="V28" s="10"/>
+      <c r="V28" s="9"/>
       <c r="W28" s="2">
         <v>1223</v>
       </c>
       <c r="X28" s="2">
         <v>3036</v>
       </c>
-      <c r="Z28" s="10"/>
+      <c r="Z28" s="9"/>
       <c r="AA28" s="2">
         <v>4082</v>
       </c>
@@ -6006,14 +6181,14 @@
       <c r="T29" s="2">
         <v>1326</v>
       </c>
-      <c r="V29" s="10"/>
+      <c r="V29" s="9"/>
       <c r="W29" s="3">
         <v>1265</v>
       </c>
       <c r="X29" s="2">
         <v>3029</v>
       </c>
-      <c r="Z29" s="10"/>
+      <c r="Z29" s="9"/>
       <c r="AA29" s="2">
         <v>4057</v>
       </c>
@@ -6067,14 +6242,14 @@
       <c r="T30" s="2">
         <v>1327</v>
       </c>
-      <c r="V30" s="10"/>
+      <c r="V30" s="9"/>
       <c r="W30" s="2">
         <v>1268</v>
       </c>
       <c r="X30" s="2">
         <v>3028</v>
       </c>
-      <c r="Z30" s="10"/>
+      <c r="Z30" s="9"/>
       <c r="AA30" s="2">
         <v>4077</v>
       </c>
@@ -6128,14 +6303,14 @@
       <c r="T31" s="2">
         <v>1331</v>
       </c>
-      <c r="V31" s="10"/>
+      <c r="V31" s="9"/>
       <c r="W31" s="2">
         <v>1316</v>
       </c>
       <c r="X31" s="2">
         <v>3039</v>
       </c>
-      <c r="Z31" s="10"/>
+      <c r="Z31" s="9"/>
       <c r="AA31" s="2">
         <v>4074</v>
       </c>
@@ -6189,14 +6364,14 @@
       <c r="T32" s="2">
         <v>1334</v>
       </c>
-      <c r="V32" s="10"/>
+      <c r="V32" s="9"/>
       <c r="W32" s="2">
         <v>1329</v>
       </c>
       <c r="X32" s="2">
         <v>3041</v>
       </c>
-      <c r="Z32" s="10"/>
+      <c r="Z32" s="9"/>
       <c r="AA32" s="2">
         <v>4099</v>
       </c>
@@ -6250,14 +6425,14 @@
       <c r="T33" s="2">
         <v>1337</v>
       </c>
-      <c r="V33" s="10"/>
+      <c r="V33" s="9"/>
       <c r="W33" s="2">
         <v>1200</v>
       </c>
       <c r="X33" s="2">
         <v>3025</v>
       </c>
-      <c r="Z33" s="10"/>
+      <c r="Z33" s="9"/>
       <c r="AA33" s="2">
         <v>4536</v>
       </c>
@@ -6311,14 +6486,14 @@
       <c r="T34" s="2">
         <v>1335</v>
       </c>
-      <c r="V34" s="10"/>
+      <c r="V34" s="9"/>
       <c r="W34" s="2">
         <v>1183</v>
       </c>
       <c r="X34" s="2">
         <v>3053</v>
       </c>
-      <c r="Z34" s="10"/>
+      <c r="Z34" s="9"/>
       <c r="AA34" s="2">
         <v>4102</v>
       </c>
@@ -6372,14 +6547,14 @@
       <c r="T35" s="2">
         <v>1333</v>
       </c>
-      <c r="V35" s="10"/>
+      <c r="V35" s="9"/>
       <c r="W35" s="2">
         <v>1177</v>
       </c>
       <c r="X35" s="2">
         <v>3049</v>
       </c>
-      <c r="Z35" s="10"/>
+      <c r="Z35" s="9"/>
       <c r="AA35" s="2">
         <v>4068</v>
       </c>
@@ -6433,14 +6608,14 @@
       <c r="T36" s="2">
         <v>1338</v>
       </c>
-      <c r="V36" s="10"/>
+      <c r="V36" s="9"/>
       <c r="W36" s="2">
         <v>1171</v>
       </c>
       <c r="X36" s="2">
         <v>3045</v>
       </c>
-      <c r="Z36" s="10"/>
+      <c r="Z36" s="9"/>
       <c r="AA36" s="2">
         <v>4067</v>
       </c>
@@ -6494,14 +6669,14 @@
       <c r="T37" s="2">
         <v>1338</v>
       </c>
-      <c r="V37" s="10"/>
+      <c r="V37" s="9"/>
       <c r="W37" s="2">
         <v>1172</v>
       </c>
       <c r="X37" s="2">
         <v>3034</v>
       </c>
-      <c r="Z37" s="10"/>
+      <c r="Z37" s="9"/>
       <c r="AA37" s="2">
         <v>4066</v>
       </c>
@@ -6555,14 +6730,14 @@
       <c r="T38" s="2">
         <v>1331</v>
       </c>
-      <c r="V38" s="10"/>
+      <c r="V38" s="9"/>
       <c r="W38" s="2">
         <v>1176</v>
       </c>
       <c r="X38" s="2">
         <v>3028</v>
       </c>
-      <c r="Z38" s="10"/>
+      <c r="Z38" s="9"/>
       <c r="AA38" s="2">
         <v>4051</v>
       </c>
@@ -6616,14 +6791,14 @@
       <c r="T39" s="2">
         <v>1349</v>
       </c>
-      <c r="V39" s="10"/>
+      <c r="V39" s="9"/>
       <c r="W39" s="2">
         <v>1176</v>
       </c>
       <c r="X39" s="2">
         <v>3034</v>
       </c>
-      <c r="Z39" s="10"/>
+      <c r="Z39" s="9"/>
       <c r="AA39" s="2">
         <v>4054</v>
       </c>
@@ -6677,14 +6852,14 @@
       <c r="T40" s="2">
         <v>1341</v>
       </c>
-      <c r="V40" s="10"/>
+      <c r="V40" s="9"/>
       <c r="W40" s="2">
         <v>1165</v>
       </c>
       <c r="X40" s="2">
         <v>3026</v>
       </c>
-      <c r="Z40" s="10"/>
+      <c r="Z40" s="9"/>
       <c r="AA40" s="2">
         <v>4268</v>
       </c>
@@ -6738,14 +6913,14 @@
       <c r="T41" s="2">
         <v>1338</v>
       </c>
-      <c r="V41" s="10"/>
+      <c r="V41" s="9"/>
       <c r="W41" s="2">
         <v>1174</v>
       </c>
       <c r="X41" s="2">
         <v>3043</v>
       </c>
-      <c r="Z41" s="10"/>
+      <c r="Z41" s="9"/>
       <c r="AA41" s="2">
         <v>4516</v>
       </c>
@@ -6799,14 +6974,14 @@
       <c r="T42" s="2">
         <v>1338</v>
       </c>
-      <c r="V42" s="10"/>
+      <c r="V42" s="9"/>
       <c r="W42" s="2">
         <v>1169</v>
       </c>
       <c r="X42" s="2">
         <v>3038</v>
       </c>
-      <c r="Z42" s="10"/>
+      <c r="Z42" s="9"/>
       <c r="AA42" s="2">
         <v>4108</v>
       </c>
@@ -6860,14 +7035,14 @@
       <c r="T43" s="2">
         <v>1333</v>
       </c>
-      <c r="V43" s="10"/>
+      <c r="V43" s="9"/>
       <c r="W43" s="2">
         <v>1186</v>
       </c>
       <c r="X43" s="2">
         <v>3046</v>
       </c>
-      <c r="Z43" s="10"/>
+      <c r="Z43" s="9"/>
       <c r="AA43" s="2">
         <v>4071</v>
       </c>
@@ -6921,14 +7096,14 @@
       <c r="T44" s="2">
         <v>1335</v>
       </c>
-      <c r="V44" s="10"/>
+      <c r="V44" s="9"/>
       <c r="W44" s="2">
         <v>1168</v>
       </c>
       <c r="X44" s="2">
         <v>3041</v>
       </c>
-      <c r="Z44" s="10"/>
+      <c r="Z44" s="9"/>
       <c r="AA44" s="2">
         <v>4056</v>
       </c>
@@ -6982,14 +7157,14 @@
       <c r="T45" s="2">
         <v>1332</v>
       </c>
-      <c r="V45" s="10"/>
+      <c r="V45" s="9"/>
       <c r="W45" s="2">
         <v>1165</v>
       </c>
       <c r="X45" s="2">
         <v>3032</v>
       </c>
-      <c r="Z45" s="10"/>
+      <c r="Z45" s="9"/>
       <c r="AA45" s="2">
         <v>4063</v>
       </c>
@@ -7043,14 +7218,14 @@
       <c r="T46" s="2">
         <v>1337</v>
       </c>
-      <c r="V46" s="10"/>
+      <c r="V46" s="9"/>
       <c r="W46" s="2">
         <v>1163</v>
       </c>
       <c r="X46" s="2">
         <v>3041</v>
       </c>
-      <c r="Z46" s="10"/>
+      <c r="Z46" s="9"/>
       <c r="AA46" s="2">
         <v>4053</v>
       </c>
@@ -7104,14 +7279,14 @@
       <c r="T47" s="2">
         <v>1333</v>
       </c>
-      <c r="V47" s="10"/>
+      <c r="V47" s="9"/>
       <c r="W47" s="2">
         <v>1174</v>
       </c>
       <c r="X47" s="2">
         <v>3034</v>
       </c>
-      <c r="Z47" s="10"/>
+      <c r="Z47" s="9"/>
       <c r="AA47" s="2">
         <v>4072</v>
       </c>
@@ -7165,14 +7340,14 @@
       <c r="T48" s="2">
         <v>1334</v>
       </c>
-      <c r="V48" s="10"/>
+      <c r="V48" s="9"/>
       <c r="W48" s="2">
         <v>1184</v>
       </c>
       <c r="X48" s="2">
         <v>3026</v>
       </c>
-      <c r="Z48" s="10"/>
+      <c r="Z48" s="9"/>
       <c r="AA48" s="2">
         <v>4537</v>
       </c>
@@ -7226,14 +7401,14 @@
       <c r="T49" s="2">
         <v>1339</v>
       </c>
-      <c r="V49" s="10"/>
+      <c r="V49" s="9"/>
       <c r="W49" s="2">
         <v>1182</v>
       </c>
       <c r="X49" s="2">
         <v>3043</v>
       </c>
-      <c r="Z49" s="10"/>
+      <c r="Z49" s="9"/>
       <c r="AA49" s="2">
         <v>4137</v>
       </c>
@@ -7287,14 +7462,14 @@
       <c r="T50" s="2">
         <v>1330</v>
       </c>
-      <c r="V50" s="10"/>
+      <c r="V50" s="9"/>
       <c r="W50" s="2">
         <v>1174</v>
       </c>
       <c r="X50" s="2">
         <v>3041</v>
       </c>
-      <c r="Z50" s="10"/>
+      <c r="Z50" s="9"/>
       <c r="AA50" s="2">
         <v>4084</v>
       </c>
@@ -7348,14 +7523,14 @@
       <c r="T51" s="2">
         <v>1336</v>
       </c>
-      <c r="V51" s="10"/>
+      <c r="V51" s="9"/>
       <c r="W51" s="2">
         <v>1177</v>
       </c>
       <c r="X51" s="2">
         <v>3038</v>
       </c>
-      <c r="Z51" s="10"/>
+      <c r="Z51" s="9"/>
       <c r="AA51" s="2">
         <v>4085</v>
       </c>
@@ -7409,14 +7584,14 @@
       <c r="T52" s="2">
         <v>1338</v>
       </c>
-      <c r="V52" s="10"/>
+      <c r="V52" s="9"/>
       <c r="W52" s="2">
         <v>1171</v>
       </c>
       <c r="X52" s="2">
         <v>3035</v>
       </c>
-      <c r="Z52" s="10"/>
+      <c r="Z52" s="9"/>
       <c r="AA52" s="2">
         <v>4064</v>
       </c>
@@ -7470,14 +7645,14 @@
       <c r="T53" s="2">
         <v>1340</v>
       </c>
-      <c r="V53" s="10"/>
+      <c r="V53" s="9"/>
       <c r="W53" s="2">
         <v>1171</v>
       </c>
       <c r="X53" s="2">
         <v>3035</v>
       </c>
-      <c r="Z53" s="10"/>
+      <c r="Z53" s="9"/>
       <c r="AA53" s="2">
         <v>4054</v>
       </c>
@@ -7522,21 +7697,21 @@
       <c r="P54" s="2">
         <v>396</v>
       </c>
-      <c r="R54" s="9"/>
+      <c r="R54" s="8"/>
       <c r="S54" s="3">
         <v>1734</v>
       </c>
       <c r="T54" s="2">
         <v>1327</v>
       </c>
-      <c r="V54" s="10"/>
+      <c r="V54" s="9"/>
       <c r="W54" s="2">
         <v>1197</v>
       </c>
       <c r="X54" s="2">
         <v>3038</v>
       </c>
-      <c r="Z54" s="10"/>
+      <c r="Z54" s="9"/>
       <c r="AA54" s="2">
         <v>4041</v>
       </c>
@@ -7581,21 +7756,21 @@
       <c r="P55" s="2">
         <v>395</v>
       </c>
-      <c r="R55" s="9"/>
+      <c r="R55" s="8"/>
       <c r="S55" s="2">
         <v>1720</v>
       </c>
       <c r="T55" s="2">
         <v>1336</v>
       </c>
-      <c r="V55" s="10"/>
+      <c r="V55" s="9"/>
       <c r="W55" s="2">
         <v>1271</v>
       </c>
       <c r="X55" s="2">
         <v>3029</v>
       </c>
-      <c r="Z55" s="10"/>
+      <c r="Z55" s="9"/>
       <c r="AA55" s="2">
         <v>4265</v>
       </c>
@@ -7640,21 +7815,21 @@
       <c r="P56" s="2">
         <v>395</v>
       </c>
-      <c r="R56" s="9"/>
+      <c r="R56" s="8"/>
       <c r="S56" s="2">
         <v>1724</v>
       </c>
       <c r="T56" s="2">
         <v>1336</v>
       </c>
-      <c r="V56" s="10"/>
+      <c r="V56" s="9"/>
       <c r="W56" s="2">
         <v>1292</v>
       </c>
       <c r="X56" s="2">
         <v>3029</v>
       </c>
-      <c r="Z56" s="10"/>
+      <c r="Z56" s="9"/>
       <c r="AA56" s="2">
         <v>4500</v>
       </c>
@@ -7699,21 +7874,21 @@
       <c r="P57" s="2">
         <v>395</v>
       </c>
-      <c r="R57" s="9"/>
+      <c r="R57" s="8"/>
       <c r="S57" s="2">
         <v>1714</v>
       </c>
       <c r="T57" s="2">
         <v>1335</v>
       </c>
-      <c r="V57" s="10"/>
+      <c r="V57" s="9"/>
       <c r="W57" s="2">
         <v>1322</v>
       </c>
       <c r="X57" s="2">
         <v>3041</v>
       </c>
-      <c r="Z57" s="10"/>
+      <c r="Z57" s="9"/>
       <c r="AA57" s="2">
         <v>4100</v>
       </c>
@@ -7758,21 +7933,21 @@
       <c r="P58" s="2">
         <v>395</v>
       </c>
-      <c r="R58" s="9"/>
+      <c r="R58" s="8"/>
       <c r="S58" s="2">
         <v>1715</v>
       </c>
       <c r="T58" s="2">
         <v>1335</v>
       </c>
-      <c r="V58" s="10"/>
+      <c r="V58" s="9"/>
       <c r="W58" s="2">
         <v>1276</v>
       </c>
       <c r="X58" s="2">
         <v>3036</v>
       </c>
-      <c r="Z58" s="10"/>
+      <c r="Z58" s="9"/>
       <c r="AA58" s="2">
         <v>4080</v>
       </c>
@@ -7817,21 +7992,21 @@
       <c r="P59" s="2">
         <v>393</v>
       </c>
-      <c r="R59" s="9"/>
+      <c r="R59" s="8"/>
       <c r="S59" s="2">
         <v>1719</v>
       </c>
       <c r="T59" s="2">
         <v>1334</v>
       </c>
-      <c r="V59" s="10"/>
+      <c r="V59" s="9"/>
       <c r="W59" s="2">
         <v>1178</v>
       </c>
       <c r="X59" s="2">
         <v>3032</v>
       </c>
-      <c r="Z59" s="10"/>
+      <c r="Z59" s="9"/>
       <c r="AA59" s="2">
         <v>4073</v>
       </c>
@@ -7876,21 +8051,21 @@
       <c r="P60" s="2">
         <v>394</v>
       </c>
-      <c r="R60" s="9"/>
+      <c r="R60" s="8"/>
       <c r="S60" s="2">
         <v>1725</v>
       </c>
       <c r="T60" s="2">
         <v>1340</v>
       </c>
-      <c r="V60" s="10"/>
+      <c r="V60" s="9"/>
       <c r="W60" s="2">
         <v>1182</v>
       </c>
       <c r="X60" s="2">
         <v>3036</v>
       </c>
-      <c r="Z60" s="10"/>
+      <c r="Z60" s="9"/>
       <c r="AA60" s="2">
         <v>4059</v>
       </c>
@@ -7935,21 +8110,21 @@
       <c r="P61" s="2">
         <v>396</v>
       </c>
-      <c r="R61" s="9"/>
+      <c r="R61" s="8"/>
       <c r="S61" s="2">
         <v>1731</v>
       </c>
       <c r="T61" s="2">
         <v>1331</v>
       </c>
-      <c r="V61" s="10"/>
+      <c r="V61" s="9"/>
       <c r="W61" s="2">
         <v>1178</v>
       </c>
       <c r="X61" s="2">
         <v>3040</v>
       </c>
-      <c r="Z61" s="10"/>
+      <c r="Z61" s="9"/>
       <c r="AA61" s="2">
         <v>4052</v>
       </c>
@@ -7994,21 +8169,21 @@
       <c r="P62" s="2">
         <v>395</v>
       </c>
-      <c r="R62" s="9"/>
+      <c r="R62" s="8"/>
       <c r="S62" s="2">
         <v>1735</v>
       </c>
       <c r="T62" s="2">
         <v>1338</v>
       </c>
-      <c r="V62" s="10"/>
+      <c r="V62" s="9"/>
       <c r="W62" s="2">
         <v>1169</v>
       </c>
       <c r="X62" s="2">
         <v>3036</v>
       </c>
-      <c r="Z62" s="10"/>
+      <c r="Z62" s="9"/>
       <c r="AA62" s="2">
         <v>4071</v>
       </c>
@@ -8053,21 +8228,21 @@
       <c r="P63" s="2">
         <v>393</v>
       </c>
-      <c r="R63" s="9"/>
+      <c r="R63" s="8"/>
       <c r="S63" s="2">
         <v>1732</v>
       </c>
       <c r="T63" s="2">
         <v>1333</v>
       </c>
-      <c r="V63" s="10"/>
+      <c r="V63" s="9"/>
       <c r="W63" s="2">
         <v>1165</v>
       </c>
       <c r="X63" s="2">
         <v>3041</v>
       </c>
-      <c r="Z63" s="10"/>
+      <c r="Z63" s="9"/>
       <c r="AA63" s="2">
         <v>4538</v>
       </c>
@@ -8112,21 +8287,21 @@
       <c r="P64" s="2">
         <v>396</v>
       </c>
-      <c r="R64" s="9"/>
+      <c r="R64" s="8"/>
       <c r="S64" s="2">
         <v>1730</v>
       </c>
       <c r="T64" s="2">
         <v>1335</v>
       </c>
-      <c r="V64" s="10"/>
+      <c r="V64" s="9"/>
       <c r="W64" s="2">
         <v>1157</v>
       </c>
       <c r="X64" s="2">
         <v>3031</v>
       </c>
-      <c r="Z64" s="10"/>
+      <c r="Z64" s="9"/>
       <c r="AA64" s="2">
         <v>4143</v>
       </c>
@@ -8171,21 +8346,21 @@
       <c r="P65" s="2">
         <v>394</v>
       </c>
-      <c r="R65" s="9"/>
+      <c r="R65" s="8"/>
       <c r="S65" s="2">
         <v>1727</v>
       </c>
       <c r="T65" s="2">
         <v>1334</v>
       </c>
-      <c r="V65" s="10"/>
+      <c r="V65" s="9"/>
       <c r="W65" s="2">
         <v>1164</v>
       </c>
       <c r="X65" s="2">
         <v>3030</v>
       </c>
-      <c r="Z65" s="10"/>
+      <c r="Z65" s="9"/>
       <c r="AA65" s="2">
         <v>4078</v>
       </c>
@@ -8230,21 +8405,21 @@
       <c r="P66" s="2">
         <v>394</v>
       </c>
-      <c r="R66" s="9"/>
+      <c r="R66" s="8"/>
       <c r="S66" s="2">
         <v>1720</v>
       </c>
       <c r="T66" s="2">
         <v>1336</v>
       </c>
-      <c r="V66" s="10"/>
+      <c r="V66" s="9"/>
       <c r="W66" s="2">
         <v>1160</v>
       </c>
       <c r="X66" s="2">
         <v>3041</v>
       </c>
-      <c r="Z66" s="10"/>
+      <c r="Z66" s="9"/>
       <c r="AA66" s="2">
         <v>4072</v>
       </c>
@@ -8289,21 +8464,21 @@
       <c r="P67" s="2">
         <v>395</v>
       </c>
-      <c r="R67" s="9"/>
+      <c r="R67" s="8"/>
       <c r="S67" s="2">
         <v>1716</v>
       </c>
       <c r="T67" s="2">
         <v>1339</v>
       </c>
-      <c r="V67" s="10"/>
+      <c r="V67" s="9"/>
       <c r="W67" s="2">
         <v>1158</v>
       </c>
       <c r="X67" s="2">
         <v>3037</v>
       </c>
-      <c r="Z67" s="10"/>
+      <c r="Z67" s="9"/>
       <c r="AA67" s="2">
         <v>4038</v>
       </c>
@@ -8348,21 +8523,21 @@
       <c r="P68" s="2">
         <v>394</v>
       </c>
-      <c r="R68" s="9"/>
+      <c r="R68" s="8"/>
       <c r="S68" s="2">
         <v>1727</v>
       </c>
       <c r="T68" s="2">
         <v>1334</v>
       </c>
-      <c r="V68" s="10"/>
+      <c r="V68" s="9"/>
       <c r="W68" s="2">
         <v>1155</v>
       </c>
       <c r="X68" s="2">
         <v>3035</v>
       </c>
-      <c r="Z68" s="10"/>
+      <c r="Z68" s="9"/>
       <c r="AA68" s="2">
         <v>4054</v>
       </c>
@@ -8407,21 +8582,21 @@
       <c r="P69" s="2">
         <v>398</v>
       </c>
-      <c r="R69" s="9"/>
+      <c r="R69" s="8"/>
       <c r="S69" s="2">
         <v>1727</v>
       </c>
       <c r="T69" s="2">
         <v>1336</v>
       </c>
-      <c r="V69" s="10"/>
+      <c r="V69" s="9"/>
       <c r="W69" s="2">
         <v>1153</v>
       </c>
       <c r="X69" s="2">
         <v>3034</v>
       </c>
-      <c r="Z69" s="10"/>
+      <c r="Z69" s="9"/>
       <c r="AA69" s="2">
         <v>4055</v>
       </c>
@@ -8466,21 +8641,21 @@
       <c r="P70" s="2">
         <v>395</v>
       </c>
-      <c r="R70" s="9"/>
+      <c r="R70" s="8"/>
       <c r="S70" s="2">
         <v>1745</v>
       </c>
       <c r="T70" s="2">
         <v>1337</v>
       </c>
-      <c r="V70" s="10"/>
+      <c r="V70" s="9"/>
       <c r="W70" s="2">
         <v>1149</v>
       </c>
       <c r="X70" s="2">
         <v>3021</v>
       </c>
-      <c r="Z70" s="10"/>
+      <c r="Z70" s="9"/>
       <c r="AA70" s="2">
         <v>4279</v>
       </c>
@@ -8525,21 +8700,21 @@
       <c r="P71" s="2">
         <v>394</v>
       </c>
-      <c r="R71" s="9"/>
+      <c r="R71" s="8"/>
       <c r="S71" s="2">
         <v>1730</v>
       </c>
       <c r="T71" s="2">
         <v>1334</v>
       </c>
-      <c r="V71" s="10"/>
+      <c r="V71" s="9"/>
       <c r="W71" s="2">
         <v>1156</v>
       </c>
       <c r="X71" s="2">
         <v>3042</v>
       </c>
-      <c r="Z71" s="10"/>
+      <c r="Z71" s="9"/>
       <c r="AA71" s="2">
         <v>4487</v>
       </c>
@@ -8584,21 +8759,21 @@
       <c r="P72" s="2">
         <v>293</v>
       </c>
-      <c r="R72" s="9"/>
+      <c r="R72" s="8"/>
       <c r="S72" s="2">
         <v>1734</v>
       </c>
       <c r="T72" s="2">
         <v>1338</v>
       </c>
-      <c r="V72" s="10"/>
+      <c r="V72" s="9"/>
       <c r="W72" s="2">
         <v>1158</v>
       </c>
       <c r="X72" s="2">
         <v>3035</v>
       </c>
-      <c r="Z72" s="10"/>
+      <c r="Z72" s="9"/>
       <c r="AA72" s="2">
         <v>4118</v>
       </c>
@@ -8643,21 +8818,21 @@
       <c r="P73" s="2">
         <v>293</v>
       </c>
-      <c r="R73" s="9"/>
+      <c r="R73" s="8"/>
       <c r="S73" s="2">
         <v>1720</v>
       </c>
       <c r="T73" s="2">
         <v>1335</v>
       </c>
-      <c r="V73" s="10"/>
+      <c r="V73" s="9"/>
       <c r="W73" s="2">
         <v>1164</v>
       </c>
       <c r="X73" s="2">
         <v>3028</v>
       </c>
-      <c r="Z73" s="10"/>
+      <c r="Z73" s="9"/>
       <c r="AA73" s="2">
         <v>4106</v>
       </c>
@@ -8702,21 +8877,21 @@
       <c r="P74" s="2">
         <v>394</v>
       </c>
-      <c r="R74" s="9"/>
+      <c r="R74" s="8"/>
       <c r="S74" s="2">
         <v>1729</v>
       </c>
       <c r="T74" s="2">
         <v>1336</v>
       </c>
-      <c r="V74" s="10"/>
+      <c r="V74" s="9"/>
       <c r="W74" s="2">
         <v>1155</v>
       </c>
       <c r="X74" s="2">
         <v>3036</v>
       </c>
-      <c r="Z74" s="10"/>
+      <c r="Z74" s="9"/>
       <c r="AA74" s="2">
         <v>4074</v>
       </c>
@@ -8761,21 +8936,21 @@
       <c r="P75" s="2">
         <v>395</v>
       </c>
-      <c r="R75" s="9"/>
+      <c r="R75" s="8"/>
       <c r="S75" s="2">
         <v>1728</v>
       </c>
       <c r="T75" s="2">
         <v>1336</v>
       </c>
-      <c r="V75" s="10"/>
+      <c r="V75" s="9"/>
       <c r="W75" s="2">
         <v>1158</v>
       </c>
       <c r="X75" s="2">
         <v>3052</v>
       </c>
-      <c r="Z75" s="10"/>
+      <c r="Z75" s="9"/>
       <c r="AA75" s="2">
         <v>4087</v>
       </c>
@@ -8820,21 +8995,21 @@
       <c r="P76" s="2">
         <v>394</v>
       </c>
-      <c r="R76" s="9"/>
+      <c r="R76" s="8"/>
       <c r="S76" s="2">
         <v>1724</v>
       </c>
       <c r="T76" s="2">
         <v>1336</v>
       </c>
-      <c r="V76" s="10"/>
+      <c r="V76" s="9"/>
       <c r="W76" s="2">
         <v>1156</v>
       </c>
       <c r="X76" s="2">
         <v>3044</v>
       </c>
-      <c r="Z76" s="10"/>
+      <c r="Z76" s="9"/>
       <c r="AA76" s="2">
         <v>4067</v>
       </c>
@@ -8879,21 +9054,21 @@
       <c r="P77" s="2">
         <v>400</v>
       </c>
-      <c r="R77" s="9"/>
+      <c r="R77" s="8"/>
       <c r="S77" s="2">
         <v>1727</v>
       </c>
       <c r="T77" s="2">
         <v>1338</v>
       </c>
-      <c r="V77" s="10"/>
+      <c r="V77" s="9"/>
       <c r="W77" s="2">
         <v>1152</v>
       </c>
       <c r="X77" s="2">
         <v>3052</v>
       </c>
-      <c r="Z77" s="10"/>
+      <c r="Z77" s="9"/>
       <c r="AA77" s="2">
         <v>4089</v>
       </c>
@@ -8938,21 +9113,21 @@
       <c r="P78" s="2">
         <v>394</v>
       </c>
-      <c r="R78" s="9"/>
+      <c r="R78" s="8"/>
       <c r="S78" s="2">
         <v>1720</v>
       </c>
       <c r="T78" s="2">
         <v>1334</v>
       </c>
-      <c r="V78" s="10"/>
+      <c r="V78" s="9"/>
       <c r="W78" s="2">
         <v>1163</v>
       </c>
       <c r="X78" s="2">
         <v>3037</v>
       </c>
-      <c r="Z78" s="10"/>
+      <c r="Z78" s="9"/>
       <c r="AA78" s="2">
         <v>4521</v>
       </c>
@@ -8997,21 +9172,21 @@
       <c r="P79" s="2">
         <v>394</v>
       </c>
-      <c r="R79" s="9"/>
+      <c r="R79" s="8"/>
       <c r="S79" s="2">
         <v>1714</v>
       </c>
       <c r="T79" s="2">
         <v>1335</v>
       </c>
-      <c r="V79" s="10"/>
+      <c r="V79" s="9"/>
       <c r="W79" s="2">
         <v>1163</v>
       </c>
       <c r="X79" s="2">
         <v>3038</v>
       </c>
-      <c r="Z79" s="10"/>
+      <c r="Z79" s="9"/>
       <c r="AA79" s="2">
         <v>4111</v>
       </c>
@@ -9056,21 +9231,21 @@
       <c r="P80" s="2">
         <v>395</v>
       </c>
-      <c r="R80" s="9"/>
+      <c r="R80" s="8"/>
       <c r="S80" s="2">
         <v>1725</v>
       </c>
       <c r="T80" s="2">
         <v>1338</v>
       </c>
-      <c r="V80" s="10"/>
+      <c r="V80" s="9"/>
       <c r="W80" s="2">
         <v>1226</v>
       </c>
       <c r="X80" s="2">
         <v>3039</v>
       </c>
-      <c r="Z80" s="10"/>
+      <c r="Z80" s="9"/>
       <c r="AA80" s="2">
         <v>4094</v>
       </c>
@@ -9115,21 +9290,21 @@
       <c r="P81" s="2">
         <v>395</v>
       </c>
-      <c r="R81" s="9"/>
+      <c r="R81" s="8"/>
       <c r="S81" s="2">
         <v>1723</v>
       </c>
       <c r="T81" s="2">
         <v>1338</v>
       </c>
-      <c r="V81" s="10"/>
+      <c r="V81" s="9"/>
       <c r="W81" s="2">
         <v>1273</v>
       </c>
       <c r="X81" s="2">
         <v>3033</v>
       </c>
-      <c r="Z81" s="10"/>
+      <c r="Z81" s="9"/>
       <c r="AA81" s="2">
         <v>4068</v>
       </c>
@@ -9174,21 +9349,21 @@
       <c r="P82" s="2">
         <v>394</v>
       </c>
-      <c r="R82" s="9"/>
+      <c r="R82" s="8"/>
       <c r="S82" s="2">
         <v>1727</v>
       </c>
       <c r="T82" s="2">
         <v>1333</v>
       </c>
-      <c r="V82" s="10"/>
+      <c r="V82" s="9"/>
       <c r="W82" s="2">
         <v>1278</v>
       </c>
       <c r="X82" s="2">
         <v>3041</v>
       </c>
-      <c r="Z82" s="10"/>
+      <c r="Z82" s="9"/>
       <c r="AA82" s="2">
         <v>4069</v>
       </c>
@@ -9233,21 +9408,21 @@
       <c r="P83" s="2">
         <v>393</v>
       </c>
-      <c r="R83" s="9"/>
+      <c r="R83" s="8"/>
       <c r="S83" s="2">
         <v>1733</v>
       </c>
       <c r="T83" s="2">
         <v>1339</v>
       </c>
-      <c r="V83" s="10"/>
+      <c r="V83" s="9"/>
       <c r="W83" s="2">
         <v>1314</v>
       </c>
       <c r="X83" s="2">
         <v>3046</v>
       </c>
-      <c r="Z83" s="10"/>
+      <c r="Z83" s="9"/>
       <c r="AA83" s="2">
         <v>4084</v>
       </c>
@@ -9292,21 +9467,21 @@
       <c r="P84" s="2">
         <v>400</v>
       </c>
-      <c r="R84" s="9"/>
+      <c r="R84" s="8"/>
       <c r="S84" s="2">
         <v>1727</v>
       </c>
       <c r="T84" s="2">
         <v>1336</v>
       </c>
-      <c r="V84" s="10"/>
+      <c r="V84" s="9"/>
       <c r="W84" s="2">
         <v>1284</v>
       </c>
       <c r="X84" s="2">
         <v>3033</v>
       </c>
-      <c r="Z84" s="10"/>
+      <c r="Z84" s="9"/>
       <c r="AA84" s="2">
         <v>4043</v>
       </c>
@@ -9351,21 +9526,21 @@
       <c r="P85" s="2">
         <v>395</v>
       </c>
-      <c r="R85" s="9"/>
+      <c r="R85" s="8"/>
       <c r="S85" s="2">
         <v>1729</v>
       </c>
       <c r="T85" s="2">
         <v>1333</v>
       </c>
-      <c r="V85" s="10"/>
+      <c r="V85" s="9"/>
       <c r="W85" s="2">
         <v>1199</v>
       </c>
       <c r="X85" s="2">
         <v>3043</v>
       </c>
-      <c r="Z85" s="10"/>
+      <c r="Z85" s="9"/>
       <c r="AA85" s="2">
         <v>4270</v>
       </c>
@@ -9410,21 +9585,21 @@
       <c r="P86" s="2">
         <v>394</v>
       </c>
-      <c r="R86" s="9"/>
+      <c r="R86" s="8"/>
       <c r="S86" s="2">
         <v>1721</v>
       </c>
       <c r="T86" s="2">
         <v>1336</v>
       </c>
-      <c r="V86" s="10"/>
+      <c r="V86" s="9"/>
       <c r="W86" s="2">
         <v>1188</v>
       </c>
       <c r="X86" s="2">
         <v>3035</v>
       </c>
-      <c r="Z86" s="10"/>
+      <c r="Z86" s="9"/>
       <c r="AA86" s="2">
         <v>4259</v>
       </c>
@@ -9469,21 +9644,21 @@
       <c r="P87" s="2">
         <v>395</v>
       </c>
-      <c r="R87" s="9"/>
+      <c r="R87" s="8"/>
       <c r="S87" s="2">
         <v>1716</v>
       </c>
       <c r="T87" s="2">
         <v>1334</v>
       </c>
-      <c r="V87" s="10"/>
+      <c r="V87" s="9"/>
       <c r="W87" s="2">
         <v>1174</v>
       </c>
       <c r="X87" s="2">
         <v>3042</v>
       </c>
-      <c r="Z87" s="10"/>
+      <c r="Z87" s="9"/>
       <c r="AA87" s="2">
         <v>4080</v>
       </c>
@@ -9528,21 +9703,21 @@
       <c r="P88" s="2">
         <v>394</v>
       </c>
-      <c r="R88" s="9"/>
+      <c r="R88" s="8"/>
       <c r="S88" s="2">
         <v>1728</v>
       </c>
       <c r="T88" s="2">
         <v>1338</v>
       </c>
-      <c r="V88" s="10"/>
+      <c r="V88" s="9"/>
       <c r="W88" s="2">
         <v>1173</v>
       </c>
       <c r="X88" s="2">
         <v>3029</v>
       </c>
-      <c r="Z88" s="10"/>
+      <c r="Z88" s="9"/>
       <c r="AA88" s="2">
         <v>4077</v>
       </c>
@@ -9587,21 +9762,21 @@
       <c r="P89" s="2">
         <v>294</v>
       </c>
-      <c r="R89" s="9"/>
+      <c r="R89" s="8"/>
       <c r="S89" s="2">
         <v>1722</v>
       </c>
       <c r="T89" s="2">
         <v>1336</v>
       </c>
-      <c r="V89" s="10"/>
+      <c r="V89" s="9"/>
       <c r="W89" s="2">
         <v>1175</v>
       </c>
       <c r="X89" s="2">
         <v>3038</v>
       </c>
-      <c r="Z89" s="10"/>
+      <c r="Z89" s="9"/>
       <c r="AA89" s="2">
         <v>4073</v>
       </c>
@@ -9646,21 +9821,21 @@
       <c r="P90" s="2">
         <v>296</v>
       </c>
-      <c r="R90" s="9"/>
+      <c r="R90" s="8"/>
       <c r="S90" s="2">
         <v>1724</v>
       </c>
       <c r="T90" s="2">
         <v>1340</v>
       </c>
-      <c r="V90" s="10"/>
+      <c r="V90" s="9"/>
       <c r="W90" s="2">
         <v>1171</v>
       </c>
       <c r="X90" s="2">
         <v>3049</v>
       </c>
-      <c r="Z90" s="10"/>
+      <c r="Z90" s="9"/>
       <c r="AA90" s="2">
         <v>4073</v>
       </c>
@@ -9705,21 +9880,21 @@
       <c r="P91" s="2">
         <v>388</v>
       </c>
-      <c r="R91" s="9"/>
+      <c r="R91" s="8"/>
       <c r="S91" s="2">
         <v>1733</v>
       </c>
       <c r="T91" s="2">
         <v>1338</v>
       </c>
-      <c r="V91" s="10"/>
+      <c r="V91" s="9"/>
       <c r="W91" s="2">
         <v>1164</v>
       </c>
       <c r="X91" s="2">
         <v>3033</v>
       </c>
-      <c r="Z91" s="10"/>
+      <c r="Z91" s="9"/>
       <c r="AA91" s="2">
         <v>4062</v>
       </c>
@@ -9764,21 +9939,21 @@
       <c r="P92" s="2">
         <v>400</v>
       </c>
-      <c r="R92" s="9"/>
+      <c r="R92" s="8"/>
       <c r="S92" s="2">
         <v>1716</v>
       </c>
       <c r="T92" s="2">
         <v>1337</v>
       </c>
-      <c r="V92" s="10"/>
+      <c r="V92" s="9"/>
       <c r="W92" s="2">
         <v>1170</v>
       </c>
       <c r="X92" s="2">
         <v>3033</v>
       </c>
-      <c r="Z92" s="10"/>
+      <c r="Z92" s="9"/>
       <c r="AA92" s="2">
         <v>4081</v>
       </c>
@@ -9823,21 +9998,21 @@
       <c r="P93" s="2">
         <v>251</v>
       </c>
-      <c r="R93" s="9"/>
+      <c r="R93" s="8"/>
       <c r="S93" s="2">
         <v>1722</v>
       </c>
       <c r="T93" s="2">
         <v>1337</v>
       </c>
-      <c r="V93" s="10"/>
+      <c r="V93" s="9"/>
       <c r="W93" s="2">
         <v>1158</v>
       </c>
       <c r="X93" s="2">
         <v>3032</v>
       </c>
-      <c r="Z93" s="10"/>
+      <c r="Z93" s="9"/>
       <c r="AA93" s="2">
         <v>4084</v>
       </c>
@@ -9882,21 +10057,21 @@
       <c r="P94" s="2">
         <v>234</v>
       </c>
-      <c r="R94" s="9"/>
+      <c r="R94" s="8"/>
       <c r="S94" s="2">
         <v>1723</v>
       </c>
       <c r="T94" s="2">
         <v>1336</v>
       </c>
-      <c r="V94" s="10"/>
+      <c r="V94" s="9"/>
       <c r="W94" s="2">
         <v>1164</v>
       </c>
       <c r="X94" s="2">
         <v>3036</v>
       </c>
-      <c r="Z94" s="10"/>
+      <c r="Z94" s="9"/>
       <c r="AA94" s="2">
         <v>4118</v>
       </c>
@@ -9941,21 +10116,21 @@
       <c r="P95" s="2">
         <v>235</v>
       </c>
-      <c r="R95" s="9"/>
+      <c r="R95" s="8"/>
       <c r="S95" s="2">
         <v>1730</v>
       </c>
       <c r="T95" s="2">
         <v>1332</v>
       </c>
-      <c r="V95" s="10"/>
+      <c r="V95" s="9"/>
       <c r="W95" s="2">
         <v>1169</v>
       </c>
       <c r="X95" s="2">
         <v>3033</v>
       </c>
-      <c r="Z95" s="10"/>
+      <c r="Z95" s="9"/>
       <c r="AA95" s="2">
         <v>4118</v>
       </c>
@@ -10000,21 +10175,21 @@
       <c r="P96" s="2">
         <v>235</v>
       </c>
-      <c r="R96" s="9"/>
+      <c r="R96" s="8"/>
       <c r="S96" s="2">
         <v>1720</v>
       </c>
       <c r="T96" s="2">
         <v>1337</v>
       </c>
-      <c r="V96" s="10"/>
+      <c r="V96" s="9"/>
       <c r="W96" s="2">
         <v>1174</v>
       </c>
       <c r="X96" s="2">
         <v>3041</v>
       </c>
-      <c r="Z96" s="10"/>
+      <c r="Z96" s="9"/>
       <c r="AA96" s="2">
         <v>4062</v>
       </c>
@@ -10059,21 +10234,21 @@
       <c r="P97" s="2">
         <v>234</v>
       </c>
-      <c r="R97" s="9"/>
+      <c r="R97" s="8"/>
       <c r="S97" s="2">
         <v>1724</v>
       </c>
       <c r="T97" s="2">
         <v>1341</v>
       </c>
-      <c r="V97" s="10"/>
+      <c r="V97" s="9"/>
       <c r="W97" s="2">
         <v>1164</v>
       </c>
       <c r="X97" s="2">
         <v>3029</v>
       </c>
-      <c r="Z97" s="10"/>
+      <c r="Z97" s="9"/>
       <c r="AA97" s="2">
         <v>4089</v>
       </c>
@@ -10118,21 +10293,21 @@
       <c r="P98" s="2">
         <v>235</v>
       </c>
-      <c r="R98" s="9"/>
+      <c r="R98" s="8"/>
       <c r="S98" s="2">
         <v>1714</v>
       </c>
       <c r="T98" s="2">
         <v>1338</v>
       </c>
-      <c r="V98" s="10"/>
+      <c r="V98" s="9"/>
       <c r="W98" s="2">
         <v>1158</v>
       </c>
       <c r="X98" s="2">
         <v>3044</v>
       </c>
-      <c r="Z98" s="10"/>
+      <c r="Z98" s="9"/>
       <c r="AA98" s="2">
         <v>4089</v>
       </c>
@@ -10177,21 +10352,21 @@
       <c r="P99" s="2">
         <v>235</v>
       </c>
-      <c r="R99" s="9"/>
+      <c r="R99" s="8"/>
       <c r="S99" s="2">
         <v>1717</v>
       </c>
       <c r="T99" s="2">
         <v>1339</v>
       </c>
-      <c r="V99" s="10"/>
+      <c r="V99" s="9"/>
       <c r="W99" s="2">
         <v>1150</v>
       </c>
       <c r="X99" s="2">
         <v>3035</v>
       </c>
-      <c r="Z99" s="10"/>
+      <c r="Z99" s="9"/>
       <c r="AA99" s="2">
         <v>4093</v>
       </c>
@@ -10236,21 +10411,21 @@
       <c r="P100" s="2">
         <v>235</v>
       </c>
-      <c r="R100" s="9"/>
+      <c r="R100" s="8"/>
       <c r="S100" s="2">
         <v>1729</v>
       </c>
       <c r="T100" s="2">
         <v>1335</v>
       </c>
-      <c r="V100" s="10"/>
+      <c r="V100" s="9"/>
       <c r="W100" s="2">
         <v>1153</v>
       </c>
       <c r="X100" s="2">
         <v>3040</v>
       </c>
-      <c r="Z100" s="10"/>
+      <c r="Z100" s="9"/>
       <c r="AA100" s="2">
         <v>4182</v>
       </c>
@@ -10295,21 +10470,21 @@
       <c r="P101" s="2">
         <v>234</v>
       </c>
-      <c r="R101" s="9"/>
+      <c r="R101" s="8"/>
       <c r="S101" s="2">
         <v>1719</v>
       </c>
       <c r="T101" s="2">
         <v>1335</v>
       </c>
-      <c r="V101" s="10"/>
+      <c r="V101" s="9"/>
       <c r="W101" s="2">
         <v>1152</v>
       </c>
       <c r="X101" s="2">
         <v>3039</v>
       </c>
-      <c r="Z101" s="10"/>
+      <c r="Z101" s="9"/>
       <c r="AA101" s="2">
         <v>4110</v>
       </c>
@@ -10354,21 +10529,21 @@
       <c r="P102" s="2">
         <v>234</v>
       </c>
-      <c r="R102" s="9"/>
+      <c r="R102" s="8"/>
       <c r="S102" s="2">
         <v>1719</v>
       </c>
       <c r="T102" s="2">
         <v>1335</v>
       </c>
-      <c r="V102" s="10"/>
+      <c r="V102" s="9"/>
       <c r="W102" s="2">
         <v>1156</v>
       </c>
       <c r="X102" s="2">
         <v>3036</v>
       </c>
-      <c r="Z102" s="10"/>
+      <c r="Z102" s="9"/>
       <c r="AA102" s="2">
         <v>4452</v>
       </c>
@@ -10413,21 +10588,21 @@
       <c r="P103" s="2">
         <v>235</v>
       </c>
-      <c r="R103" s="9"/>
+      <c r="R103" s="8"/>
       <c r="S103" s="2">
         <v>1720</v>
       </c>
       <c r="T103" s="2">
         <v>1336</v>
       </c>
-      <c r="V103" s="10"/>
+      <c r="V103" s="9"/>
       <c r="W103" s="2">
         <v>1166</v>
       </c>
       <c r="X103" s="2">
         <v>3044</v>
       </c>
-      <c r="Z103" s="10"/>
+      <c r="Z103" s="9"/>
       <c r="AA103" s="2">
         <v>4076</v>
       </c>
@@ -10436,41 +10611,41 @@
       </c>
     </row>
     <row r="104" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="F104" s="9" t="s">
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="F104" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="J104" s="9" t="s">
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="J104" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="N104" s="9" t="s">
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="N104" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O104" s="9"/>
-      <c r="P104" s="9"/>
-      <c r="R104" s="9" t="s">
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="R104" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="S104" s="9"/>
-      <c r="T104" s="9"/>
-      <c r="V104" s="9" t="s">
+      <c r="S104" s="8"/>
+      <c r="T104" s="8"/>
+      <c r="V104" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="W104" s="9"/>
-      <c r="X104" s="9"/>
-      <c r="Z104" s="9" t="s">
+      <c r="W104" s="8"/>
+      <c r="X104" s="8"/>
+      <c r="Z104" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AA104" s="9"/>
-      <c r="AB104" s="9"/>
+      <c r="AA104" s="8"/>
+      <c r="AB104" s="8"/>
     </row>
     <row r="105" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B105" s="2">
@@ -10566,8 +10741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9980FA75-0FD8-A448-82AA-5AA0CC5094F6}">
   <dimension ref="B1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10580,94 +10755,94 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>6</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>8</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>9</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>10</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>12</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>13</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>118</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>1641</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>11371</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>102757</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>12171000</v>
       </c>
-      <c r="H3" s="14" t="str">
+      <c r="H3" s="13" t="str">
         <f>'Dane poszczególne'!V105</f>
         <v>N/A</v>
       </c>
-      <c r="I3" s="15" t="str">
+      <c r="I3" s="14" t="str">
         <f>'Dane poszczególne'!Z105</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>181</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>1113</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>3642</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>4261</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>77462</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>109396</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <v>407387</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
